--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_15_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-797204.001210937</v>
+        <v>-799063.0564932964</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1373,22 +1373,22 @@
         <v>301.0107215343888</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>317.668199835643</v>
       </c>
       <c r="F11" t="n">
-        <v>342.6138755050927</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>348.305269075243</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.1997591548758</v>
+        <v>164.1784440510821</v>
       </c>
       <c r="I11" t="n">
-        <v>40.76113535209365</v>
+        <v>40.76113535209362</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.42729154253649</v>
+        <v>82.42729154253647</v>
       </c>
       <c r="T11" t="n">
         <v>146.8599114426838</v>
       </c>
       <c r="U11" t="n">
-        <v>77.14856780803737</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>263.4900882335161</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>284.9787984807942</v>
       </c>
       <c r="X11" t="n">
-        <v>305.4689304418503</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.9757684194349</v>
+        <v>321.9757684194348</v>
       </c>
     </row>
     <row r="12">
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773043</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.5698099453186</v>
+        <v>115.5698099453185</v>
       </c>
       <c r="C13" t="n">
         <v>102.9846508620091</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159361</v>
+        <v>84.35330278159358</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995043</v>
+        <v>29.96693802966341</v>
       </c>
       <c r="F13" t="n">
-        <v>81.1588777863125</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>102.5018485138553</v>
       </c>
       <c r="H13" t="n">
-        <v>87.0562070471025</v>
+        <v>87.05620704710248</v>
       </c>
       <c r="I13" t="n">
-        <v>54.29025295233666</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.86261053062149</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>138.3718506593842</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>158.4409511393646</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>221.9899339958002</v>
       </c>
       <c r="V13" t="n">
-        <v>25.97696077406744</v>
+        <v>187.8754730872092</v>
       </c>
       <c r="W13" t="n">
-        <v>222.2608280999723</v>
+        <v>222.2608280999722</v>
       </c>
       <c r="X13" t="n">
         <v>161.4474851524184</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>318.4716714268617</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>301.0107215343887</v>
+        <v>208.2788370486496</v>
       </c>
       <c r="D14" t="n">
-        <v>290.4208713840641</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E14" t="n">
         <v>317.668199835643</v>
       </c>
       <c r="F14" t="n">
-        <v>342.6138755050926</v>
+        <v>342.6138755050927</v>
       </c>
       <c r="G14" t="n">
         <v>348.305269075243</v>
       </c>
       <c r="H14" t="n">
-        <v>247.1997591548757</v>
+        <v>247.1997591548758</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209356</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.42729154253641</v>
+        <v>82.42729154253647</v>
       </c>
       <c r="T14" t="n">
-        <v>146.8599114426837</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>263.4900882335161</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>284.9787984807942</v>
       </c>
       <c r="X14" t="n">
-        <v>96.5041954496167</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>115.5698099453185</v>
       </c>
       <c r="C16" t="n">
-        <v>102.984650862009</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>84.35330278159353</v>
+        <v>84.35330278159358</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.15887778631247</v>
       </c>
       <c r="G16" t="n">
-        <v>102.5018485138553</v>
+        <v>48.68866305459706</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.29025295233663</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.8626105306214</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>138.3718506593841</v>
       </c>
       <c r="T16" t="n">
-        <v>158.4409511393645</v>
+        <v>158.4409511393646</v>
       </c>
       <c r="U16" t="n">
         <v>221.9899339958002</v>
@@ -1825,10 +1825,10 @@
         <v>187.8754730872092</v>
       </c>
       <c r="W16" t="n">
-        <v>143.0495119867338</v>
+        <v>222.2608280999722</v>
       </c>
       <c r="X16" t="n">
-        <v>161.4474851524183</v>
+        <v>161.4474851524184</v>
       </c>
       <c r="Y16" t="n">
         <v>154.322483115476</v>
@@ -1844,10 +1844,10 @@
         <v>238.1073382465104</v>
       </c>
       <c r="C17" t="n">
-        <v>220.6463883540373</v>
+        <v>220.6463883540374</v>
       </c>
       <c r="D17" t="n">
-        <v>210.0565382037127</v>
+        <v>210.0565382037128</v>
       </c>
       <c r="E17" t="n">
         <v>237.3038666552916</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.062958362185014</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>66.49557826233232</v>
+        <v>66.49557826233234</v>
       </c>
       <c r="U17" t="n">
         <v>106.5003256346044</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71350598924312</v>
+        <v>183.1257550531647</v>
       </c>
       <c r="W17" t="n">
-        <v>204.6144653004428</v>
+        <v>106.2651745987063</v>
       </c>
       <c r="X17" t="n">
         <v>225.1045972614988</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.20547676496707</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C19" t="n">
-        <v>22.62031768165761</v>
+        <v>22.62031768165764</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E19" t="n">
-        <v>1.807459229598948</v>
+        <v>1.807459229598976</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7945446059610219</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G19" t="n">
-        <v>22.13751533350386</v>
+        <v>22.13751533350388</v>
       </c>
       <c r="H19" t="n">
-        <v>151.3183772837212</v>
+        <v>6.691873866751051</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>124.7342330887742</v>
+        <v>124.7342330887745</v>
       </c>
       <c r="T19" t="n">
-        <v>78.07661795901311</v>
+        <v>78.07661795901313</v>
       </c>
       <c r="U19" t="n">
-        <v>141.6256008154488</v>
+        <v>286.252104232419</v>
       </c>
       <c r="V19" t="n">
         <v>107.5111399068578</v>
@@ -2065,10 +2065,10 @@
         <v>141.8964949196208</v>
       </c>
       <c r="X19" t="n">
-        <v>81.08315197206693</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.95814993512457</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2081,16 @@
         <v>238.1073382465104</v>
       </c>
       <c r="C20" t="n">
-        <v>220.6463883540373</v>
+        <v>220.6463883540374</v>
       </c>
       <c r="D20" t="n">
-        <v>210.0565382037127</v>
+        <v>210.0565382037128</v>
       </c>
       <c r="E20" t="n">
         <v>237.3038666552916</v>
       </c>
       <c r="F20" t="n">
-        <v>262.2495423247412</v>
+        <v>163.9002516230048</v>
       </c>
       <c r="G20" t="n">
         <v>267.9409358948916</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.062958362185014</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>66.49557826233232</v>
+        <v>66.49557826233234</v>
       </c>
       <c r="U20" t="n">
-        <v>106.5003256346044</v>
+        <v>106.5003256346045</v>
       </c>
       <c r="V20" t="n">
         <v>183.1257550531647</v>
@@ -2144,7 +2144,7 @@
         <v>204.6144653004428</v>
       </c>
       <c r="X20" t="n">
-        <v>124.6923481975773</v>
+        <v>225.1045972614988</v>
       </c>
       <c r="Y20" t="n">
         <v>241.6114352390834</v>
@@ -2175,7 +2175,7 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H21" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633158</v>
       </c>
       <c r="I21" t="n">
         <v>39.0081176598659</v>
@@ -2208,7 +2208,7 @@
         <v>9.291614910404874</v>
       </c>
       <c r="S21" t="n">
-        <v>144.4990485769316</v>
+        <v>144.499048576932</v>
       </c>
       <c r="T21" t="n">
         <v>194.2657420118874</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.20547676496707</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C22" t="n">
-        <v>22.62031768165761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>3.988969601242133</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E22" t="n">
-        <v>1.807459229598948</v>
+        <v>1.807459229598976</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7945446059610219</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G22" t="n">
-        <v>111.3659535929761</v>
+        <v>22.13751533350388</v>
       </c>
       <c r="H22" t="n">
-        <v>151.3183772837212</v>
+        <v>6.691873866751051</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>58.00751747903269</v>
+        <v>58.00751747903271</v>
       </c>
       <c r="T22" t="n">
-        <v>78.07661795901311</v>
+        <v>78.07661795901313</v>
       </c>
       <c r="U22" t="n">
         <v>141.6256008154488</v>
       </c>
       <c r="V22" t="n">
-        <v>107.5111399068578</v>
+        <v>200.311935744614</v>
       </c>
       <c r="W22" t="n">
         <v>141.8964949196208</v>
       </c>
       <c r="X22" t="n">
-        <v>81.08315197206693</v>
+        <v>81.08315197206696</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.95814993512457</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="23">
@@ -2318,10 +2318,10 @@
         <v>238.1073382465104</v>
       </c>
       <c r="C23" t="n">
-        <v>220.6463883540373</v>
+        <v>220.6463883540374</v>
       </c>
       <c r="D23" t="n">
-        <v>210.0565382037127</v>
+        <v>210.0565382037128</v>
       </c>
       <c r="E23" t="n">
         <v>237.3038666552916</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.062958362185014</v>
+        <v>2.062958362185043</v>
       </c>
       <c r="T23" t="n">
-        <v>66.49557826233232</v>
+        <v>66.49557826233234</v>
       </c>
       <c r="U23" t="n">
-        <v>106.5003256346044</v>
+        <v>106.5003256346045</v>
       </c>
       <c r="V23" t="n">
         <v>183.1257550531647</v>
@@ -2473,31 +2473,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.20547676496707</v>
+        <v>35.2054767649671</v>
       </c>
       <c r="C25" t="n">
-        <v>22.62031768165761</v>
+        <v>22.62031768165764</v>
       </c>
       <c r="D25" t="n">
-        <v>3.988969601242133</v>
+        <v>3.988969601242161</v>
       </c>
       <c r="E25" t="n">
-        <v>1.807459229598948</v>
+        <v>1.807459229598976</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7945446059610219</v>
+        <v>0.7945446059610504</v>
       </c>
       <c r="G25" t="n">
-        <v>22.13751533350386</v>
+        <v>22.13751533350388</v>
       </c>
       <c r="H25" t="n">
-        <v>6.691873866751022</v>
+        <v>6.691873866751051</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613065132156024</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.72671560974142</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903269</v>
+        <v>202.6340208960029</v>
       </c>
       <c r="T25" t="n">
-        <v>78.07661795901311</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U25" t="n">
         <v>141.6256008154488</v>
       </c>
       <c r="V25" t="n">
-        <v>167.6247903844437</v>
+        <v>107.5111399068578</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>141.8964949196208</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>81.08315197206696</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.95814993512457</v>
+        <v>73.9581499351246</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I26" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836097</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.32512859880377</v>
+        <v>66.32512859880383</v>
       </c>
       <c r="T26" t="n">
         <v>130.7577484989511</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.46764700158586</v>
+        <v>99.46764700158589</v>
       </c>
       <c r="C28" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827642</v>
       </c>
       <c r="D28" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786095</v>
       </c>
       <c r="E28" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621776</v>
       </c>
       <c r="F28" t="n">
-        <v>65.05671484257981</v>
+        <v>65.05671484257984</v>
       </c>
       <c r="G28" t="n">
-        <v>86.39968557012266</v>
+        <v>86.39968557012268</v>
       </c>
       <c r="H28" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336984</v>
       </c>
       <c r="I28" t="n">
-        <v>38.18809000860396</v>
+        <v>38.18809000860399</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76044758688879</v>
+        <v>41.76044758688882</v>
       </c>
       <c r="S28" t="n">
         <v>122.2696877156515</v>
@@ -2792,16 +2792,16 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C29" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D29" t="n">
-        <v>274.3187084403316</v>
+        <v>274.3187084403315</v>
       </c>
       <c r="E29" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F29" t="n">
-        <v>326.5117125613601</v>
+        <v>326.51171256136</v>
       </c>
       <c r="G29" t="n">
         <v>332.2031061315104</v>
@@ -2810,7 +2810,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I29" t="n">
-        <v>24.65897240836104</v>
+        <v>24.65897240836097</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.3251285988039</v>
+        <v>66.32512859880381</v>
       </c>
       <c r="T29" t="n">
-        <v>130.7577484989512</v>
+        <v>130.7577484989511</v>
       </c>
       <c r="U29" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V29" t="n">
         <v>247.3879252897835</v>
@@ -2855,7 +2855,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X29" t="n">
-        <v>289.3667674981177</v>
+        <v>289.3667674981176</v>
       </c>
       <c r="Y29" t="n">
         <v>305.8736054757022</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.46764700158595</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C31" t="n">
-        <v>86.88248791827648</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D31" t="n">
-        <v>68.251139837861</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E31" t="n">
-        <v>66.06962946621782</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F31" t="n">
-        <v>65.05671484257989</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G31" t="n">
-        <v>86.39968557012274</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H31" t="n">
-        <v>70.9540441033699</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I31" t="n">
-        <v>38.18809000860405</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76044758688888</v>
+        <v>41.76044758688881</v>
       </c>
       <c r="S31" t="n">
         <v>122.2696877156515</v>
       </c>
       <c r="T31" t="n">
-        <v>142.338788195632</v>
+        <v>142.3387881956319</v>
       </c>
       <c r="U31" t="n">
         <v>205.8877710520676</v>
       </c>
       <c r="V31" t="n">
-        <v>171.7733101434742</v>
+        <v>171.7733101434766</v>
       </c>
       <c r="W31" t="n">
         <v>206.1586651562396</v>
       </c>
       <c r="X31" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y31" t="n">
         <v>138.2203201717434</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>302.3695084831292</v>
+        <v>302.3695084831291</v>
       </c>
       <c r="C32" t="n">
         <v>284.9085585906561</v>
@@ -3035,19 +3035,19 @@
         <v>274.3187084403315</v>
       </c>
       <c r="E32" t="n">
-        <v>301.5660368919104</v>
+        <v>301.5660368919103</v>
       </c>
       <c r="F32" t="n">
         <v>326.51171256136</v>
       </c>
       <c r="G32" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H32" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I32" t="n">
-        <v>24.65897240836098</v>
+        <v>24.65897240836081</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.32512859880383</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T32" t="n">
         <v>130.7577484989511</v>
@@ -3086,16 +3086,16 @@
         <v>170.7624958712232</v>
       </c>
       <c r="V32" t="n">
-        <v>247.3879252897835</v>
+        <v>247.3879252897834</v>
       </c>
       <c r="W32" t="n">
-        <v>268.8766355370616</v>
+        <v>268.8766355370615</v>
       </c>
       <c r="X32" t="n">
         <v>289.3667674981176</v>
       </c>
       <c r="Y32" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158583</v>
       </c>
       <c r="C34" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827637</v>
       </c>
       <c r="D34" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786089</v>
       </c>
       <c r="E34" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621771</v>
       </c>
       <c r="F34" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257978</v>
       </c>
       <c r="G34" t="n">
-        <v>86.39968557012268</v>
+        <v>86.39968557012263</v>
       </c>
       <c r="H34" t="n">
-        <v>70.95404410336984</v>
+        <v>70.95404410336978</v>
       </c>
       <c r="I34" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688876</v>
       </c>
       <c r="S34" t="n">
-        <v>122.2696877156515</v>
+        <v>122.2696877156514</v>
       </c>
       <c r="T34" t="n">
         <v>142.3387881956319</v>
       </c>
       <c r="U34" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V34" t="n">
-        <v>171.7733101434766</v>
+        <v>171.7733101434765</v>
       </c>
       <c r="W34" t="n">
-        <v>206.1586651562396</v>
+        <v>206.1586651562395</v>
       </c>
       <c r="X34" t="n">
         <v>145.3453222086857</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>302.3695084831292</v>
+        <v>302.3695084831291</v>
       </c>
       <c r="C35" t="n">
         <v>284.9085585906561</v>
@@ -3272,19 +3272,19 @@
         <v>274.3187084403315</v>
       </c>
       <c r="E35" t="n">
-        <v>301.5660368919104</v>
+        <v>301.5660368919103</v>
       </c>
       <c r="F35" t="n">
         <v>326.51171256136</v>
       </c>
       <c r="G35" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H35" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I35" t="n">
-        <v>24.65897240836098</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880383</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T35" t="n">
         <v>130.7577484989511</v>
@@ -3323,16 +3323,16 @@
         <v>170.7624958712232</v>
       </c>
       <c r="V35" t="n">
-        <v>247.3879252897835</v>
+        <v>247.3879252897834</v>
       </c>
       <c r="W35" t="n">
-        <v>268.8766355370616</v>
+        <v>268.8766355370615</v>
       </c>
       <c r="X35" t="n">
         <v>289.3667674981176</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158583</v>
       </c>
       <c r="C37" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827637</v>
       </c>
       <c r="D37" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786089</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621771</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257978</v>
       </c>
       <c r="G37" t="n">
-        <v>86.39968557012267</v>
+        <v>86.39968557012261</v>
       </c>
       <c r="H37" t="n">
-        <v>70.95404410336984</v>
+        <v>70.95404410336978</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S37" t="n">
-        <v>122.2696877156515</v>
+        <v>122.2696877156514</v>
       </c>
       <c r="T37" t="n">
-        <v>142.3387881956319</v>
+        <v>142.3387881956318</v>
       </c>
       <c r="U37" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V37" t="n">
-        <v>171.7733101434766</v>
+        <v>171.7733101434765</v>
       </c>
       <c r="W37" t="n">
-        <v>206.1586651562396</v>
+        <v>206.1586651562395</v>
       </c>
       <c r="X37" t="n">
         <v>145.3453222086857</v>
       </c>
       <c r="Y37" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302.3695084831292</v>
+        <v>302.3695084831291</v>
       </c>
       <c r="C38" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D38" t="n">
-        <v>274.3187084403316</v>
+        <v>274.3187084403315</v>
       </c>
       <c r="E38" t="n">
-        <v>301.5660368919104</v>
+        <v>301.5660368919103</v>
       </c>
       <c r="F38" t="n">
-        <v>326.5117125613601</v>
+        <v>326.51171256136</v>
       </c>
       <c r="G38" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H38" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65897240836102</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880387</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T38" t="n">
-        <v>130.7577484989512</v>
+        <v>130.7577484989511</v>
       </c>
       <c r="U38" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V38" t="n">
-        <v>247.3879252897835</v>
+        <v>247.3879252897834</v>
       </c>
       <c r="W38" t="n">
-        <v>268.8766355370616</v>
+        <v>268.8766355370615</v>
       </c>
       <c r="X38" t="n">
-        <v>289.3667674981177</v>
+        <v>289.3667674981176</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.46764700158593</v>
+        <v>99.46764700158583</v>
       </c>
       <c r="C40" t="n">
-        <v>86.88248791827647</v>
+        <v>86.88248791827637</v>
       </c>
       <c r="D40" t="n">
-        <v>68.25113983786099</v>
+        <v>68.25113983786089</v>
       </c>
       <c r="E40" t="n">
-        <v>66.0696294662178</v>
+        <v>66.06962946621771</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257988</v>
+        <v>65.05671484257978</v>
       </c>
       <c r="G40" t="n">
-        <v>86.39968557012271</v>
+        <v>86.39968557012261</v>
       </c>
       <c r="H40" t="n">
-        <v>70.95404410336988</v>
+        <v>70.95404410336978</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860404</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76044758688887</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S40" t="n">
-        <v>122.2696877156515</v>
+        <v>122.2696877156514</v>
       </c>
       <c r="T40" t="n">
-        <v>142.338788195632</v>
+        <v>142.3387881956318</v>
       </c>
       <c r="U40" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V40" t="n">
-        <v>171.7733101434766</v>
+        <v>171.7733101434765</v>
       </c>
       <c r="W40" t="n">
-        <v>206.1586651562396</v>
+        <v>206.1586651562395</v>
       </c>
       <c r="X40" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y40" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>302.3695084831292</v>
+        <v>302.3695084831291</v>
       </c>
       <c r="C41" t="n">
         <v>284.9085585906561</v>
@@ -3746,19 +3746,19 @@
         <v>274.3187084403315</v>
       </c>
       <c r="E41" t="n">
-        <v>301.5660368919104</v>
+        <v>301.5660368919103</v>
       </c>
       <c r="F41" t="n">
         <v>326.51171256136</v>
       </c>
       <c r="G41" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H41" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65897240836097</v>
+        <v>24.65897240836092</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T41" t="n">
         <v>130.7577484989511</v>
@@ -3797,16 +3797,16 @@
         <v>170.7624958712232</v>
       </c>
       <c r="V41" t="n">
-        <v>247.3879252897835</v>
+        <v>247.3879252897834</v>
       </c>
       <c r="W41" t="n">
-        <v>268.8766355370616</v>
+        <v>268.8766355370615</v>
       </c>
       <c r="X41" t="n">
         <v>289.3667674981176</v>
       </c>
       <c r="Y41" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.46764700158587</v>
+        <v>99.46764700158583</v>
       </c>
       <c r="C43" t="n">
-        <v>86.88248791827641</v>
+        <v>86.88248791827637</v>
       </c>
       <c r="D43" t="n">
-        <v>68.25113983786093</v>
+        <v>68.25113983786089</v>
       </c>
       <c r="E43" t="n">
-        <v>66.06962946621775</v>
+        <v>66.06962946621771</v>
       </c>
       <c r="F43" t="n">
-        <v>65.05671484257982</v>
+        <v>65.05671484257978</v>
       </c>
       <c r="G43" t="n">
-        <v>86.39968557012267</v>
+        <v>86.39968557012261</v>
       </c>
       <c r="H43" t="n">
-        <v>70.95404410336982</v>
+        <v>70.95404410336978</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S43" t="n">
-        <v>122.2696877156515</v>
+        <v>122.2696877156514</v>
       </c>
       <c r="T43" t="n">
-        <v>142.3387881956319</v>
+        <v>142.3387881956318</v>
       </c>
       <c r="U43" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V43" t="n">
-        <v>171.7733101434766</v>
+        <v>171.7733101434765</v>
       </c>
       <c r="W43" t="n">
-        <v>206.1586651562396</v>
+        <v>206.1586651562395</v>
       </c>
       <c r="X43" t="n">
         <v>145.3453222086857</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836097</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T44" t="n">
         <v>130.7577484989511</v>
@@ -4043,7 +4043,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.46764700158587</v>
+        <v>99.46764700158585</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88248791827641</v>
+        <v>86.88248791827638</v>
       </c>
       <c r="D46" t="n">
-        <v>68.25113983786093</v>
+        <v>68.2511398378609</v>
       </c>
       <c r="E46" t="n">
-        <v>66.06962946621775</v>
+        <v>66.06962946621772</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05671484257982</v>
+        <v>65.05671484257979</v>
       </c>
       <c r="G46" t="n">
-        <v>86.39968557012266</v>
+        <v>86.39968557012263</v>
       </c>
       <c r="H46" t="n">
-        <v>70.95404410336982</v>
+        <v>70.9540441033698</v>
       </c>
       <c r="I46" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76044758688881</v>
+        <v>41.76044758688878</v>
       </c>
       <c r="S46" t="n">
         <v>122.2696877156515</v>
@@ -4189,7 +4189,7 @@
         <v>142.3387881956319</v>
       </c>
       <c r="U46" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V46" t="n">
         <v>171.7733101434766</v>
@@ -4201,7 +4201,7 @@
         <v>145.3453222086857</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
   </sheetData>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1345.019380997034</v>
+        <v>1177.492725982466</v>
       </c>
       <c r="C11" t="n">
-        <v>1040.968147123914</v>
+        <v>873.4414921093464</v>
       </c>
       <c r="D11" t="n">
-        <v>1040.968147123914</v>
+        <v>580.0870765698876</v>
       </c>
       <c r="E11" t="n">
-        <v>1040.968147123914</v>
+        <v>259.2101070389344</v>
       </c>
       <c r="F11" t="n">
-        <v>694.8935254015979</v>
+        <v>259.2101070389344</v>
       </c>
       <c r="G11" t="n">
-        <v>343.0700212851908</v>
+        <v>259.2101070389344</v>
       </c>
       <c r="H11" t="n">
-        <v>93.37329486612428</v>
+        <v>93.37329486612424</v>
       </c>
       <c r="I11" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J11" t="n">
-        <v>102.7984511139568</v>
+        <v>270.2041001343098</v>
       </c>
       <c r="K11" t="n">
-        <v>229.3702855158045</v>
+        <v>396.7759345361575</v>
       </c>
       <c r="L11" t="n">
-        <v>836.7802026013824</v>
+        <v>590.7012492167894</v>
       </c>
       <c r="M11" t="n">
-        <v>1482.7605346685</v>
+        <v>1236.681581283907</v>
       </c>
       <c r="N11" t="n">
-        <v>2128.740866735617</v>
+        <v>1492.748084012287</v>
       </c>
       <c r="O11" t="n">
-        <v>2377.191315222786</v>
+        <v>1826.686216137698</v>
       </c>
       <c r="P11" t="n">
-        <v>2537.676557170988</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q11" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R11" t="n">
         <v>2610.021543705524</v>
@@ -5069,22 +5069,22 @@
         <v>2526.761653258518</v>
       </c>
       <c r="T11" t="n">
-        <v>2378.418308366917</v>
+        <v>2378.418308366918</v>
       </c>
       <c r="U11" t="n">
-        <v>2300.490462096172</v>
+        <v>2378.418308366918</v>
       </c>
       <c r="V11" t="n">
-        <v>2300.490462096172</v>
+        <v>2112.266704090639</v>
       </c>
       <c r="W11" t="n">
-        <v>2300.490462096172</v>
+        <v>1824.409331887817</v>
       </c>
       <c r="X11" t="n">
-        <v>1991.935986902384</v>
+        <v>1824.409331887817</v>
       </c>
       <c r="Y11" t="n">
-        <v>1666.707937993864</v>
+        <v>1499.181282979297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.1064540750158</v>
+        <v>957.1064540750161</v>
       </c>
       <c r="C12" t="n">
-        <v>782.6534247938888</v>
+        <v>782.6534247938891</v>
       </c>
       <c r="D12" t="n">
-        <v>633.7190151326377</v>
+        <v>633.7190151326379</v>
       </c>
       <c r="E12" t="n">
-        <v>474.4815601271821</v>
+        <v>474.4815601271823</v>
       </c>
       <c r="F12" t="n">
-        <v>327.9470021540671</v>
+        <v>327.9470021540673</v>
       </c>
       <c r="G12" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642094</v>
       </c>
       <c r="H12" t="n">
         <v>91.60256992448008</v>
@@ -5118,25 +5118,25 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J12" t="n">
-        <v>63.51841814083011</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K12" t="n">
-        <v>161.0174858070674</v>
+        <v>547.6681954365249</v>
       </c>
       <c r="L12" t="n">
-        <v>534.1787576441304</v>
+        <v>820.4280748539239</v>
       </c>
       <c r="M12" t="n">
-        <v>1180.159089711248</v>
+        <v>1046.828129983181</v>
       </c>
       <c r="N12" t="n">
-        <v>1826.139421778365</v>
+        <v>1692.808462050299</v>
       </c>
       <c r="O12" t="n">
-        <v>2419.61787099099</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P12" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q12" t="n">
         <v>2610.021543705524</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>652.7225847661912</v>
+        <v>463.1731048480739</v>
       </c>
       <c r="C13" t="n">
-        <v>548.6976849055759</v>
+        <v>359.1482049874587</v>
       </c>
       <c r="D13" t="n">
-        <v>463.4923285605319</v>
+        <v>273.9428486424146</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4905180454305</v>
+        <v>243.6732142690173</v>
       </c>
       <c r="F13" t="n">
-        <v>298.511853614812</v>
+        <v>243.6732142690173</v>
       </c>
       <c r="G13" t="n">
-        <v>194.974632893746</v>
+        <v>140.1359935479514</v>
       </c>
       <c r="H13" t="n">
-        <v>107.0390702199051</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I13" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J13" t="n">
-        <v>109.2730449275286</v>
+        <v>109.2730449275284</v>
       </c>
       <c r="K13" t="n">
-        <v>291.9708056845545</v>
+        <v>291.9708056845546</v>
       </c>
       <c r="L13" t="n">
-        <v>563.495903273353</v>
+        <v>563.4959032733532</v>
       </c>
       <c r="M13" t="n">
-        <v>856.7118258711459</v>
+        <v>856.7118258711462</v>
       </c>
       <c r="N13" t="n">
         <v>1149.90307628869</v>
@@ -5218,31 +5218,31 @@
         <v>1617.389630818504</v>
       </c>
       <c r="Q13" t="n">
-        <v>1697.422563974901</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="R13" t="n">
-        <v>1638.975482630839</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="S13" t="n">
-        <v>1499.205936510249</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="T13" t="n">
-        <v>1339.164571723012</v>
+        <v>1537.381199187665</v>
       </c>
       <c r="U13" t="n">
-        <v>1339.164571723012</v>
+        <v>1313.14894262625</v>
       </c>
       <c r="V13" t="n">
-        <v>1312.925217405772</v>
+        <v>1123.375737487655</v>
       </c>
       <c r="W13" t="n">
-        <v>1088.419330436104</v>
+        <v>898.869850517986</v>
       </c>
       <c r="X13" t="n">
-        <v>925.3410626053778</v>
+        <v>735.7915826872604</v>
       </c>
       <c r="Y13" t="n">
-        <v>769.4597665291392</v>
+        <v>579.9102866110219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1959.250766067444</v>
+        <v>1824.409331887816</v>
       </c>
       <c r="C14" t="n">
-        <v>1655.199532194325</v>
+        <v>1614.026668202311</v>
       </c>
       <c r="D14" t="n">
-        <v>1361.845116654866</v>
+        <v>1320.672252662852</v>
       </c>
       <c r="E14" t="n">
-        <v>1040.968147123913</v>
+        <v>999.7952831318999</v>
       </c>
       <c r="F14" t="n">
-        <v>694.8935254015976</v>
+        <v>653.720661409584</v>
       </c>
       <c r="G14" t="n">
-        <v>343.0700212851906</v>
+        <v>301.897157293177</v>
       </c>
       <c r="H14" t="n">
-        <v>93.37329486612418</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I14" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J14" t="n">
-        <v>102.7984511139568</v>
+        <v>270.2041001343098</v>
       </c>
       <c r="K14" t="n">
-        <v>550.2742439612576</v>
+        <v>717.6798929816107</v>
       </c>
       <c r="L14" t="n">
-        <v>744.1995586418896</v>
+        <v>911.6052076622425</v>
       </c>
       <c r="M14" t="n">
-        <v>991.6482740760455</v>
+        <v>1159.053923096398</v>
       </c>
       <c r="N14" t="n">
-        <v>1247.714776804426</v>
+        <v>1415.120425824779</v>
       </c>
       <c r="O14" t="n">
-        <v>1826.686216137698</v>
+        <v>1848.418753379713</v>
       </c>
       <c r="P14" t="n">
-        <v>2305.752179175668</v>
+        <v>2327.484716417682</v>
       </c>
       <c r="Q14" t="n">
-        <v>2588.28900646351</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R14" t="n">
         <v>2610.021543705524</v>
@@ -5306,22 +5306,22 @@
         <v>2526.761653258518</v>
       </c>
       <c r="T14" t="n">
-        <v>2378.418308366918</v>
+        <v>2378.418308366917</v>
       </c>
       <c r="U14" t="n">
-        <v>2378.418308366918</v>
+        <v>2378.418308366917</v>
       </c>
       <c r="V14" t="n">
-        <v>2378.418308366918</v>
+        <v>2112.266704090638</v>
       </c>
       <c r="W14" t="n">
-        <v>2378.418308366918</v>
+        <v>1824.409331887816</v>
       </c>
       <c r="X14" t="n">
-        <v>2280.939323064275</v>
+        <v>1824.409331887816</v>
       </c>
       <c r="Y14" t="n">
-        <v>2280.939323064275</v>
+        <v>1824.409331887816</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>547.6681954365249</v>
       </c>
       <c r="L15" t="n">
-        <v>725.0902652012094</v>
+        <v>829.6838750071919</v>
       </c>
       <c r="M15" t="n">
-        <v>1371.070597268327</v>
+        <v>1056.083930136449</v>
       </c>
       <c r="N15" t="n">
-        <v>2017.050929335444</v>
+        <v>1302.884765966336</v>
       </c>
       <c r="O15" t="n">
-        <v>2419.61787099099</v>
+        <v>1896.363215178962</v>
       </c>
       <c r="P15" t="n">
-        <v>2563.655439837501</v>
+        <v>2355.67892497901</v>
       </c>
       <c r="Q15" t="n">
         <v>2610.021543705524</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>344.9679078008355</v>
+        <v>323.4035587274839</v>
       </c>
       <c r="C16" t="n">
-        <v>240.9430079402203</v>
+        <v>323.4035587274839</v>
       </c>
       <c r="D16" t="n">
-        <v>155.7376515951763</v>
+        <v>238.1982023824399</v>
       </c>
       <c r="E16" t="n">
-        <v>155.7376515951763</v>
+        <v>238.1982023824399</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7376515951763</v>
+        <v>156.2195379518213</v>
       </c>
       <c r="G16" t="n">
-        <v>52.20043087411048</v>
+        <v>107.0390702199051</v>
       </c>
       <c r="H16" t="n">
-        <v>52.20043087411048</v>
+        <v>107.0390702199051</v>
       </c>
       <c r="I16" t="n">
         <v>52.20043087411048</v>
       </c>
       <c r="J16" t="n">
-        <v>109.2730449275288</v>
+        <v>109.2730449275286</v>
       </c>
       <c r="K16" t="n">
-        <v>291.9708056845551</v>
+        <v>291.9708056845549</v>
       </c>
       <c r="L16" t="n">
-        <v>563.4959032733536</v>
+        <v>563.4959032733534</v>
       </c>
       <c r="M16" t="n">
-        <v>856.7118258711466</v>
+        <v>856.7118258711464</v>
       </c>
       <c r="N16" t="n">
         <v>1149.90307628869</v>
       </c>
       <c r="O16" t="n">
-        <v>1409.552953254355</v>
+        <v>1409.552953254354</v>
       </c>
       <c r="P16" t="n">
         <v>1617.389630818505</v>
@@ -5458,28 +5458,28 @@
         <v>1697.422563974902</v>
       </c>
       <c r="R16" t="n">
-        <v>1638.97548263084</v>
+        <v>1697.422563974902</v>
       </c>
       <c r="S16" t="n">
-        <v>1499.20593651025</v>
+        <v>1557.653017854312</v>
       </c>
       <c r="T16" t="n">
-        <v>1339.164571723013</v>
+        <v>1397.611653067075</v>
       </c>
       <c r="U16" t="n">
-        <v>1114.932315161599</v>
+        <v>1173.37939650566</v>
       </c>
       <c r="V16" t="n">
-        <v>925.1591100230037</v>
+        <v>983.606191367065</v>
       </c>
       <c r="W16" t="n">
-        <v>780.6646534707473</v>
+        <v>759.100304397396</v>
       </c>
       <c r="X16" t="n">
-        <v>617.5863856400217</v>
+        <v>596.0220365666703</v>
       </c>
       <c r="Y16" t="n">
-        <v>461.7050895637834</v>
+        <v>440.1407404904319</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1208.146197594476</v>
       </c>
       <c r="D17" t="n">
-        <v>995.9678761765838</v>
+        <v>995.967876176584</v>
       </c>
       <c r="E17" t="n">
-        <v>756.2670007671984</v>
+        <v>756.2670007671985</v>
       </c>
       <c r="F17" t="n">
         <v>491.3684731664497</v>
@@ -5513,25 +5513,25 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J17" t="n">
-        <v>102.7984511139568</v>
+        <v>270.2041001343098</v>
       </c>
       <c r="K17" t="n">
-        <v>229.3702855158045</v>
+        <v>396.7759345361575</v>
       </c>
       <c r="L17" t="n">
-        <v>835.0370377587128</v>
+        <v>1004.185851621735</v>
       </c>
       <c r="M17" t="n">
-        <v>1481.01736982583</v>
+        <v>1650.166183688852</v>
       </c>
       <c r="N17" t="n">
-        <v>2126.997701892947</v>
+        <v>1906.232686417233</v>
       </c>
       <c r="O17" t="n">
-        <v>2355.458777980772</v>
+        <v>2134.693762505058</v>
       </c>
       <c r="P17" t="n">
-        <v>2515.944019928974</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q17" t="n">
         <v>2588.28900646351</v>
@@ -5540,16 +5540,16 @@
         <v>2610.021543705524</v>
       </c>
       <c r="S17" t="n">
-        <v>2607.937747380085</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="T17" t="n">
-        <v>2540.770496610052</v>
+        <v>2542.854292935491</v>
       </c>
       <c r="U17" t="n">
-        <v>2433.194410110451</v>
+        <v>2435.278206435891</v>
       </c>
       <c r="V17" t="n">
-        <v>2349.645414161721</v>
+        <v>2250.302696281179</v>
       </c>
       <c r="W17" t="n">
         <v>2142.964136080466</v>
@@ -5604,10 +5604,10 @@
         <v>1351.551829489294</v>
       </c>
       <c r="N18" t="n">
-        <v>1826.139421778365</v>
+        <v>1598.352665319181</v>
       </c>
       <c r="O18" t="n">
-        <v>2419.61787099099</v>
+        <v>2191.831114531807</v>
       </c>
       <c r="P18" t="n">
         <v>2563.655439837501</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1818.01056859252</v>
+        <v>110.8273806909941</v>
       </c>
       <c r="C19" t="n">
-        <v>1795.161762853472</v>
+        <v>87.97857495194596</v>
       </c>
       <c r="D19" t="n">
-        <v>1645.045123441136</v>
+        <v>83.94931272846902</v>
       </c>
       <c r="E19" t="n">
-        <v>1643.219407047602</v>
+        <v>82.1235963349347</v>
       </c>
       <c r="F19" t="n">
-        <v>1642.416836738551</v>
+        <v>81.32102602588314</v>
       </c>
       <c r="G19" t="n">
-        <v>1620.055710139052</v>
+        <v>58.95989942638427</v>
       </c>
       <c r="H19" t="n">
-        <v>1467.208864397919</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I19" t="n">
-        <v>1467.208864397919</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="J19" t="n">
-        <v>1467.208864397919</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="K19" t="n">
-        <v>1586.287076620693</v>
+        <v>171.2786430968841</v>
       </c>
       <c r="L19" t="n">
-        <v>1794.192625675239</v>
+        <v>379.18419215143</v>
       </c>
       <c r="M19" t="n">
-        <v>2023.788999738779</v>
+        <v>608.7805662149705</v>
       </c>
       <c r="N19" t="n">
-        <v>2253.36070162207</v>
+        <v>838.3522680982617</v>
       </c>
       <c r="O19" t="n">
-        <v>2449.391030053482</v>
+        <v>1034.382596529673</v>
       </c>
       <c r="P19" t="n">
-        <v>2593.60815908338</v>
+        <v>1178.599725559571</v>
       </c>
       <c r="Q19" t="n">
-        <v>2610.021543705524</v>
+        <v>1195.013110181715</v>
       </c>
       <c r="R19" t="n">
-        <v>2610.021543705524</v>
+        <v>1195.013110181715</v>
       </c>
       <c r="S19" t="n">
-        <v>2484.027368868378</v>
+        <v>1069.018935344569</v>
       </c>
       <c r="T19" t="n">
-        <v>2405.162098202708</v>
+        <v>990.1536646788996</v>
       </c>
       <c r="U19" t="n">
-        <v>2262.105935762861</v>
+        <v>701.0101250501936</v>
       </c>
       <c r="V19" t="n">
-        <v>2153.508824745833</v>
+        <v>592.4130140331655</v>
       </c>
       <c r="W19" t="n">
-        <v>2010.179031897731</v>
+        <v>449.0832211850636</v>
       </c>
       <c r="X19" t="n">
-        <v>1928.276858188573</v>
+        <v>221.0936702870463</v>
       </c>
       <c r="Y19" t="n">
-        <v>1853.571656233901</v>
+        <v>146.388468332375</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1431.021337346028</v>
+        <v>1331.678619465485</v>
       </c>
       <c r="C20" t="n">
-        <v>1208.146197594475</v>
+        <v>1108.803479713933</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9678761765838</v>
+        <v>896.625158296041</v>
       </c>
       <c r="E20" t="n">
-        <v>756.2670007671984</v>
+        <v>656.9242828866559</v>
       </c>
       <c r="F20" t="n">
         <v>491.3684731664497</v>
       </c>
       <c r="G20" t="n">
-        <v>220.7210631716098</v>
+        <v>220.7210631716099</v>
       </c>
       <c r="H20" t="n">
         <v>52.20043087411047</v>
@@ -5756,46 +5756,46 @@
         <v>717.6798929816107</v>
       </c>
       <c r="L20" t="n">
-        <v>1036.298463526986</v>
+        <v>1116.44245912935</v>
       </c>
       <c r="M20" t="n">
-        <v>1283.747178961142</v>
+        <v>1363.891174563506</v>
       </c>
       <c r="N20" t="n">
-        <v>1539.813681689523</v>
+        <v>1619.957677291887</v>
       </c>
       <c r="O20" t="n">
-        <v>2145.266937227466</v>
+        <v>1848.418753379712</v>
       </c>
       <c r="P20" t="n">
-        <v>2305.752179175668</v>
+        <v>2327.484716417682</v>
       </c>
       <c r="Q20" t="n">
-        <v>2588.289006463509</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R20" t="n">
         <v>2610.021543705524</v>
       </c>
       <c r="S20" t="n">
-        <v>2607.937747380084</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="T20" t="n">
-        <v>2540.770496610051</v>
+        <v>2542.854292935491</v>
       </c>
       <c r="U20" t="n">
-        <v>2433.194410110451</v>
+        <v>2435.27820643589</v>
       </c>
       <c r="V20" t="n">
-        <v>2248.218899955739</v>
+        <v>2250.302696281178</v>
       </c>
       <c r="W20" t="n">
-        <v>2041.537621874484</v>
+        <v>2043.621418199923</v>
       </c>
       <c r="X20" t="n">
-        <v>1915.585755008244</v>
+        <v>1816.243037127702</v>
       </c>
       <c r="Y20" t="n">
-        <v>1671.533800221291</v>
+        <v>1572.191082340748</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.1064540750159</v>
+        <v>957.1064540750156</v>
       </c>
       <c r="C21" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938886</v>
       </c>
       <c r="D21" t="n">
-        <v>633.7190151326377</v>
+        <v>633.7190151326373</v>
       </c>
       <c r="E21" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271818</v>
       </c>
       <c r="F21" t="n">
-        <v>327.9470021540672</v>
+        <v>327.9470021540668</v>
       </c>
       <c r="G21" t="n">
-        <v>190.6944732642093</v>
+        <v>190.6944732642089</v>
       </c>
       <c r="H21" t="n">
         <v>91.60256992448006</v>
@@ -5829,25 +5829,25 @@
         <v>52.20043087411047</v>
       </c>
       <c r="J21" t="n">
-        <v>63.5184181408301</v>
+        <v>188.3485431278349</v>
       </c>
       <c r="K21" t="n">
-        <v>161.0174858070673</v>
+        <v>547.6681954365249</v>
       </c>
       <c r="L21" t="n">
-        <v>534.1787576441303</v>
+        <v>1092.222207051634</v>
       </c>
       <c r="M21" t="n">
-        <v>1180.159089711247</v>
+        <v>1362.106270936719</v>
       </c>
       <c r="N21" t="n">
-        <v>1826.139421778364</v>
+        <v>2008.086603003836</v>
       </c>
       <c r="O21" t="n">
-        <v>2419.61787099099</v>
+        <v>2211.641356132499</v>
       </c>
       <c r="P21" t="n">
-        <v>2563.6554398375</v>
+        <v>2355.678924979009</v>
       </c>
       <c r="Q21" t="n">
         <v>2610.021543705524</v>
@@ -5859,7 +5859,7 @@
         <v>2454.67743917286</v>
       </c>
       <c r="T21" t="n">
-        <v>2258.449416938631</v>
+        <v>2258.44941693863</v>
       </c>
       <c r="U21" t="n">
         <v>2030.323055025515</v>
@@ -5868,7 +5868,7 @@
         <v>1795.170946793772</v>
       </c>
       <c r="W21" t="n">
-        <v>1540.933590065571</v>
+        <v>1540.93359006557</v>
       </c>
       <c r="X21" t="n">
         <v>1333.082089860038</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>347.0444934954812</v>
+        <v>376.6646802929391</v>
       </c>
       <c r="C22" t="n">
-        <v>324.1956877564331</v>
+        <v>207.7284973650322</v>
       </c>
       <c r="D22" t="n">
-        <v>320.1664255329562</v>
+        <v>203.6992351415553</v>
       </c>
       <c r="E22" t="n">
-        <v>318.340709139422</v>
+        <v>201.873518748021</v>
       </c>
       <c r="F22" t="n">
-        <v>317.5381388303704</v>
+        <v>201.0709484389694</v>
       </c>
       <c r="G22" t="n">
-        <v>205.047276615243</v>
+        <v>178.7098218394705</v>
       </c>
       <c r="H22" t="n">
-        <v>52.20043087411047</v>
+        <v>171.9503532871967</v>
       </c>
       <c r="I22" t="n">
         <v>52.20043087411047</v>
@@ -5932,28 +5932,28 @@
         <v>1195.013110181715</v>
       </c>
       <c r="R22" t="n">
-        <v>1071.654745770362</v>
+        <v>1195.013110181715</v>
       </c>
       <c r="S22" t="n">
-        <v>1013.061293771339</v>
+        <v>1136.419658182692</v>
       </c>
       <c r="T22" t="n">
-        <v>934.1960231056689</v>
+        <v>1057.554387517022</v>
       </c>
       <c r="U22" t="n">
-        <v>791.1398606658217</v>
+        <v>914.4982250771751</v>
       </c>
       <c r="V22" t="n">
-        <v>682.5427496487937</v>
+        <v>712.1629364462518</v>
       </c>
       <c r="W22" t="n">
-        <v>539.2129568006919</v>
+        <v>568.8331435981499</v>
       </c>
       <c r="X22" t="n">
-        <v>457.3107830915334</v>
+        <v>486.9309698889914</v>
       </c>
       <c r="Y22" t="n">
-        <v>382.6055811368621</v>
+        <v>412.2257679343201</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1210.216126455822</v>
       </c>
       <c r="D23" t="n">
-        <v>998.0378050379302</v>
+        <v>998.0378050379306</v>
       </c>
       <c r="E23" t="n">
-        <v>758.336929628545</v>
+        <v>758.3369296285455</v>
       </c>
       <c r="F23" t="n">
-        <v>493.4384020277962</v>
+        <v>493.4384020277967</v>
       </c>
       <c r="G23" t="n">
-        <v>222.7909920329564</v>
+        <v>222.7909920329565</v>
       </c>
       <c r="H23" t="n">
         <v>54.27035973545703</v>
@@ -5990,25 +5990,25 @@
         <v>104.8683799753034</v>
       </c>
       <c r="K23" t="n">
-        <v>231.4402143771511</v>
+        <v>552.3441728226042</v>
       </c>
       <c r="L23" t="n">
-        <v>838.850131462729</v>
+        <v>746.269487503236</v>
       </c>
       <c r="M23" t="n">
-        <v>1086.298846896885</v>
+        <v>993.7182029373919</v>
       </c>
       <c r="N23" t="n">
-        <v>1757.894548623166</v>
+        <v>1346.461940909097</v>
       </c>
       <c r="O23" t="n">
-        <v>2363.347804161108</v>
+        <v>1951.91519644704</v>
       </c>
       <c r="P23" t="n">
-        <v>2619.440462996301</v>
+        <v>2430.98115948501</v>
       </c>
       <c r="Q23" t="n">
-        <v>2691.785449530837</v>
+        <v>2713.517986772852</v>
       </c>
       <c r="R23" t="n">
         <v>2713.517986772852</v>
@@ -6017,13 +6017,13 @@
         <v>2711.434190447412</v>
       </c>
       <c r="T23" t="n">
-        <v>2644.266939677379</v>
+        <v>2644.26693967738</v>
       </c>
       <c r="U23" t="n">
-        <v>2536.690853177779</v>
+        <v>2536.69085317778</v>
       </c>
       <c r="V23" t="n">
-        <v>2351.715343023067</v>
+        <v>2351.715343023068</v>
       </c>
       <c r="W23" t="n">
         <v>2145.034064941812</v>
@@ -6075,13 +6075,13 @@
         <v>1094.29213591298</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.431999951334</v>
+        <v>1448.077555081758</v>
       </c>
       <c r="N24" t="n">
-        <v>1620.232835781221</v>
+        <v>1694.878390911645</v>
       </c>
       <c r="O24" t="n">
-        <v>2213.711284993846</v>
+        <v>1898.433144040308</v>
       </c>
       <c r="P24" t="n">
         <v>2357.748853840356</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.577173322195</v>
+        <v>112.8973095523406</v>
       </c>
       <c r="C25" t="n">
-        <v>96.72836758314695</v>
+        <v>90.04850381329251</v>
       </c>
       <c r="D25" t="n">
-        <v>92.69910535967004</v>
+        <v>86.01924158981558</v>
       </c>
       <c r="E25" t="n">
-        <v>90.87338896613575</v>
+        <v>84.19352519628126</v>
       </c>
       <c r="F25" t="n">
-        <v>90.07081865708422</v>
+        <v>83.3909548872297</v>
       </c>
       <c r="G25" t="n">
-        <v>67.70969205758537</v>
+        <v>61.02982828773082</v>
       </c>
       <c r="H25" t="n">
-        <v>60.95022350531161</v>
+        <v>54.27035973545703</v>
       </c>
       <c r="I25" t="n">
-        <v>60.95022350531161</v>
+        <v>54.27035973545703</v>
       </c>
       <c r="J25" t="n">
         <v>54.27035973545703</v>
@@ -6169,28 +6169,28 @@
         <v>1197.083039043062</v>
       </c>
       <c r="R25" t="n">
-        <v>1197.083039043062</v>
+        <v>1129.682316204939</v>
       </c>
       <c r="S25" t="n">
-        <v>1138.489587044039</v>
+        <v>925.0014870170572</v>
       </c>
       <c r="T25" t="n">
-        <v>1059.624316378369</v>
+        <v>700.0488391625286</v>
       </c>
       <c r="U25" t="n">
-        <v>916.5681539385218</v>
+        <v>556.9926767226813</v>
       </c>
       <c r="V25" t="n">
-        <v>747.2501838532252</v>
+        <v>448.3955657056532</v>
       </c>
       <c r="W25" t="n">
-        <v>457.8330138162646</v>
+        <v>305.0657728575514</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8434629182472</v>
+        <v>223.1635991483928</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.1382609635759</v>
+        <v>148.4583971937215</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E26" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H26" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053871</v>
       </c>
       <c r="I26" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J26" t="n">
         <v>291.3284374829997</v>
       </c>
       <c r="K26" t="n">
-        <v>417.9002718848475</v>
+        <v>738.8042303303007</v>
       </c>
       <c r="L26" t="n">
-        <v>1025.310188970426</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M26" t="n">
-        <v>1717.777302562486</v>
+        <v>2021.383325305869</v>
       </c>
       <c r="N26" t="n">
-        <v>2406.817260458731</v>
+        <v>2277.44982803425</v>
       </c>
       <c r="O26" t="n">
-        <v>3012.270515996674</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P26" t="n">
-        <v>3383.701583852175</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q26" t="n">
-        <v>3666.238411140017</v>
+        <v>3644.505873898004</v>
       </c>
       <c r="R26" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="S26" t="n">
         <v>3599.243331747286</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.164797909961</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U26" t="n">
-        <v>3294.677428343069</v>
+        <v>3294.67742834307</v>
       </c>
       <c r="V26" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W26" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X26" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y26" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="27">
@@ -6291,22 +6291,22 @@
         <v>495.6058974758721</v>
       </c>
       <c r="F27" t="n">
-        <v>349.071339502757</v>
+        <v>349.0713395027571</v>
       </c>
       <c r="G27" t="n">
         <v>211.8188106128992</v>
       </c>
       <c r="H27" t="n">
-        <v>112.7269072731699</v>
+        <v>112.72690727317</v>
       </c>
       <c r="I27" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J27" t="n">
         <v>209.4728804765248</v>
       </c>
       <c r="K27" t="n">
-        <v>568.7925327852148</v>
+        <v>568.7925327852149</v>
       </c>
       <c r="L27" t="n">
         <v>1113.346544400324</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.9932447349531</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C28" t="n">
-        <v>472.2331559286133</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D28" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E28" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F28" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G28" t="n">
-        <v>183.5693481338849</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H28" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I28" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J28" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905141</v>
       </c>
       <c r="K28" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618357</v>
       </c>
       <c r="L28" t="n">
-        <v>632.4436645649292</v>
+        <v>632.4436645649296</v>
       </c>
       <c r="M28" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N28" t="n">
         <v>1250.733120208857</v>
@@ -6418,16 +6418,16 @@
         <v>1328.645027241752</v>
       </c>
       <c r="V28" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W28" t="n">
-        <v>946.8955572420392</v>
+        <v>946.895557242039</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655891</v>
+        <v>800.0821004655887</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.4656154436257</v>
+        <v>660.465615443626</v>
       </c>
     </row>
     <row r="29">
@@ -6440,25 +6440,25 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D29" t="n">
         <v>1301.645398732179</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555021</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874615</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G29" t="n">
         <v>331.6647365253298</v>
       </c>
       <c r="H29" t="n">
-        <v>98.2328211605388</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I29" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J29" t="n">
         <v>291.3284374829997</v>
@@ -6470,43 +6470,43 @@
         <v>1346.214147415878</v>
       </c>
       <c r="M29" t="n">
-        <v>1593.662862850034</v>
+        <v>2038.681261007938</v>
       </c>
       <c r="N29" t="n">
-        <v>2282.702820746279</v>
+        <v>2299.182365276262</v>
       </c>
       <c r="O29" t="n">
-        <v>2888.156076284222</v>
+        <v>2904.635620814205</v>
       </c>
       <c r="P29" t="n">
-        <v>3367.222039322192</v>
+        <v>3383.701583852175</v>
       </c>
       <c r="Q29" t="n">
-        <v>3649.758866610034</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R29" t="n">
-        <v>3666.238411140019</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S29" t="n">
-        <v>3599.243331747288</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U29" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X29" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y29" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="30">
@@ -6525,31 +6525,31 @@
         <v>654.8433524813277</v>
       </c>
       <c r="E30" t="n">
-        <v>495.6058974758722</v>
+        <v>495.6058974758721</v>
       </c>
       <c r="F30" t="n">
-        <v>349.0713395027572</v>
+        <v>349.071339502757</v>
       </c>
       <c r="G30" t="n">
-        <v>211.8188106128993</v>
+        <v>211.8188106128992</v>
       </c>
       <c r="H30" t="n">
-        <v>112.72690727317</v>
+        <v>112.7269072731699</v>
       </c>
       <c r="I30" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J30" t="n">
-        <v>209.4728804765248</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K30" t="n">
-        <v>568.7925327852148</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L30" t="n">
         <v>1113.346544400324</v>
       </c>
       <c r="M30" t="n">
-        <v>1467.131963569102</v>
+        <v>1339.746599529581</v>
       </c>
       <c r="N30" t="n">
         <v>1713.932799398989</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.9932447349538</v>
+        <v>559.9932447349534</v>
       </c>
       <c r="C31" t="n">
-        <v>472.2331559286139</v>
+        <v>472.2331559286135</v>
       </c>
       <c r="D31" t="n">
-        <v>403.2926106378453</v>
+        <v>403.2926106378449</v>
       </c>
       <c r="E31" t="n">
-        <v>336.5556111770192</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F31" t="n">
-        <v>270.8417578006758</v>
+        <v>270.8417578006756</v>
       </c>
       <c r="G31" t="n">
         <v>183.5693481338851</v>
@@ -6616,31 +6616,31 @@
         <v>111.8985965143196</v>
       </c>
       <c r="I31" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905137</v>
       </c>
       <c r="K31" t="n">
         <v>344.9774256618352</v>
       </c>
       <c r="L31" t="n">
-        <v>632.4436645649287</v>
+        <v>632.443664564929</v>
       </c>
       <c r="M31" t="n">
-        <v>941.600728477017</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N31" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.324138488815</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P31" t="n">
-        <v>1750.101957367261</v>
+        <v>1750.101957367262</v>
       </c>
       <c r="Q31" t="n">
-        <v>1846.076031837953</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R31" t="n">
         <v>1803.893761548167</v>
@@ -6649,22 +6649,22 @@
         <v>1680.389026481852</v>
       </c>
       <c r="T31" t="n">
-        <v>1536.61247274889</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U31" t="n">
-        <v>1328.645027241751</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V31" t="n">
-        <v>1155.136633157434</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W31" t="n">
-        <v>946.8955572420402</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X31" t="n">
-        <v>800.08210046559</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.4656154436265</v>
+        <v>660.4656154436259</v>
       </c>
     </row>
     <row r="32">
@@ -6683,55 +6683,55 @@
         <v>1301.645398732179</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555018</v>
+        <v>997.0332402555015</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874614</v>
+        <v>667.2234295874612</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253297</v>
+        <v>331.6647365253295</v>
       </c>
       <c r="H32" t="n">
-        <v>98.23282116053873</v>
+        <v>98.23282116053852</v>
       </c>
       <c r="I32" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J32" t="n">
-        <v>291.3284374829997</v>
+        <v>123.9227884626467</v>
       </c>
       <c r="K32" t="n">
-        <v>417.9002718848474</v>
+        <v>571.3985813099475</v>
       </c>
       <c r="L32" t="n">
-        <v>1025.310188970425</v>
+        <v>1178.808498395525</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.777302562485</v>
+        <v>1871.275611987586</v>
       </c>
       <c r="N32" t="n">
-        <v>2406.81726045873</v>
+        <v>2560.31556988383</v>
       </c>
       <c r="O32" t="n">
-        <v>3012.270515996673</v>
+        <v>3165.768825421773</v>
       </c>
       <c r="P32" t="n">
-        <v>3361.969046610162</v>
+        <v>3572.160887363466</v>
       </c>
       <c r="Q32" t="n">
-        <v>3644.505873898004</v>
+        <v>3644.505873898002</v>
       </c>
       <c r="R32" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S32" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T32" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U32" t="n">
-        <v>3294.67742834307</v>
+        <v>3294.677428343069</v>
       </c>
       <c r="V32" t="n">
         <v>3044.790635121066</v>
@@ -6743,7 +6743,7 @@
         <v>2480.908409833006</v>
       </c>
       <c r="Y32" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="33">
@@ -6762,34 +6762,34 @@
         <v>654.8433524813277</v>
       </c>
       <c r="E33" t="n">
-        <v>495.6058974758722</v>
+        <v>495.6058974758721</v>
       </c>
       <c r="F33" t="n">
-        <v>349.0713395027572</v>
+        <v>349.071339502757</v>
       </c>
       <c r="G33" t="n">
-        <v>211.8188106128993</v>
+        <v>211.8188106128992</v>
       </c>
       <c r="H33" t="n">
-        <v>112.72690727317</v>
+        <v>112.7269072731699</v>
       </c>
       <c r="I33" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J33" t="n">
-        <v>209.4728804765248</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K33" t="n">
-        <v>568.7925327852148</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L33" t="n">
         <v>1113.346544400324</v>
       </c>
       <c r="M33" t="n">
-        <v>1467.131963569102</v>
+        <v>1339.746599529581</v>
       </c>
       <c r="N33" t="n">
-        <v>1713.932799398989</v>
+        <v>1586.547435359468</v>
       </c>
       <c r="O33" t="n">
         <v>1917.487552527652</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349527</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286129</v>
       </c>
       <c r="D34" t="n">
-        <v>403.2926106378449</v>
+        <v>403.2926106378443</v>
       </c>
       <c r="E34" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770184</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006752</v>
       </c>
       <c r="G34" t="n">
-        <v>183.5693481338849</v>
+        <v>183.5693481338847</v>
       </c>
       <c r="H34" t="n">
-        <v>111.8985965143194</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I34" t="n">
-        <v>73.32476822280037</v>
+        <v>73.32476822280033</v>
       </c>
       <c r="J34" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K34" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618347</v>
       </c>
       <c r="L34" t="n">
-        <v>632.4436645649292</v>
+        <v>632.4436645649286</v>
       </c>
       <c r="M34" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770169</v>
       </c>
       <c r="N34" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O34" t="n">
         <v>1526.324138488816</v>
@@ -6880,28 +6880,28 @@
         <v>1846.076031837954</v>
       </c>
       <c r="R34" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S34" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T34" t="n">
         <v>1536.612472748891</v>
       </c>
       <c r="U34" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V34" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W34" t="n">
-        <v>946.8955572420391</v>
+        <v>946.8955572420388</v>
       </c>
       <c r="X34" t="n">
-        <v>800.0821004655888</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.465615443626</v>
+        <v>660.4656154436252</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>1578.735003217362</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.645398732179</v>
       </c>
       <c r="E35" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555015</v>
       </c>
       <c r="F35" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874612</v>
       </c>
       <c r="G35" t="n">
-        <v>331.6647365253293</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H35" t="n">
-        <v>98.23282116053872</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I35" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J35" t="n">
-        <v>291.3284374829997</v>
+        <v>286.0754447709689</v>
       </c>
       <c r="K35" t="n">
-        <v>417.9002718848474</v>
+        <v>733.5512376182697</v>
       </c>
       <c r="L35" t="n">
-        <v>1025.310188970425</v>
+        <v>1340.961154703848</v>
       </c>
       <c r="M35" t="n">
-        <v>1717.777302562485</v>
+        <v>1588.409870138003</v>
       </c>
       <c r="N35" t="n">
-        <v>2406.81726045873</v>
+        <v>2277.449828034249</v>
       </c>
       <c r="O35" t="n">
-        <v>3012.270515996673</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P35" t="n">
-        <v>3361.969046610162</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q35" t="n">
-        <v>3644.505873898004</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R35" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S35" t="n">
         <v>3599.243331747286</v>
@@ -7002,34 +7002,34 @@
         <v>495.6058974758721</v>
       </c>
       <c r="F36" t="n">
-        <v>349.0713395027571</v>
+        <v>349.071339502757</v>
       </c>
       <c r="G36" t="n">
         <v>211.8188106128992</v>
       </c>
       <c r="H36" t="n">
-        <v>112.72690727317</v>
+        <v>112.7269072731699</v>
       </c>
       <c r="I36" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J36" t="n">
         <v>209.4728804765247</v>
       </c>
       <c r="K36" t="n">
-        <v>442.9910159160795</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L36" t="n">
-        <v>620.413085680764</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.861153922521</v>
+        <v>1339.746599529581</v>
       </c>
       <c r="N36" t="n">
-        <v>2029.210940352526</v>
+        <v>1586.547435359468</v>
       </c>
       <c r="O36" t="n">
-        <v>2232.76569348119</v>
+        <v>1917.487552527652</v>
       </c>
       <c r="P36" t="n">
         <v>2376.8032623277</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.9932447349535</v>
+        <v>559.993244734953</v>
       </c>
       <c r="C37" t="n">
-        <v>472.2331559286136</v>
+        <v>472.2331559286132</v>
       </c>
       <c r="D37" t="n">
-        <v>403.292610637845</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E37" t="n">
-        <v>336.5556111770189</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F37" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G37" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H37" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I37" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J37" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905133</v>
       </c>
       <c r="K37" t="n">
-        <v>344.9774256618353</v>
+        <v>344.9774256618348</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M37" t="n">
-        <v>941.6007284770175</v>
+        <v>941.600728477017</v>
       </c>
       <c r="N37" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488815</v>
       </c>
       <c r="P37" t="n">
-        <v>1750.101957367262</v>
+        <v>1750.101957367261</v>
       </c>
       <c r="Q37" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R37" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S37" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T37" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U37" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V37" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W37" t="n">
-        <v>946.8955572420393</v>
+        <v>946.8955572420386</v>
       </c>
       <c r="X37" t="n">
-        <v>800.0821004655891</v>
+        <v>800.0821004655885</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.4656154436261</v>
+        <v>660.4656154436256</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036206</v>
       </c>
       <c r="C38" t="n">
         <v>1578.735003217362</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0332402555016</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2234295874611</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G38" t="n">
         <v>331.6647365253293</v>
       </c>
       <c r="H38" t="n">
-        <v>98.23282116053875</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I38" t="n">
         <v>73.32476822280034</v>
@@ -7181,16 +7181,16 @@
         <v>1346.214147415878</v>
       </c>
       <c r="M38" t="n">
-        <v>2021.383325305868</v>
+        <v>1593.662862850034</v>
       </c>
       <c r="N38" t="n">
         <v>2277.449828034249</v>
       </c>
       <c r="O38" t="n">
-        <v>2882.903083572192</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P38" t="n">
-        <v>3361.969046610162</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q38" t="n">
         <v>3644.505873898003</v>
@@ -7199,25 +7199,25 @@
         <v>3666.238411140017</v>
       </c>
       <c r="S38" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747285</v>
       </c>
       <c r="T38" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U38" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V38" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W38" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X38" t="n">
         <v>2480.908409833006</v>
       </c>
       <c r="Y38" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>1113.346544400324</v>
       </c>
       <c r="M39" t="n">
-        <v>1339.746599529581</v>
+        <v>1467.131963569102</v>
       </c>
       <c r="N39" t="n">
-        <v>1586.547435359468</v>
+        <v>1713.932799398989</v>
       </c>
       <c r="O39" t="n">
         <v>1917.487552527652</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.9932447349536</v>
+        <v>559.993244734953</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286138</v>
+        <v>472.2331559286132</v>
       </c>
       <c r="D40" t="n">
-        <v>403.2926106378451</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E40" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F40" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G40" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H40" t="n">
-        <v>111.8985965143196</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I40" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J40" t="n">
-        <v>146.3385235905137</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618352</v>
+        <v>344.9774256618354</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649289</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M40" t="n">
-        <v>941.6007284770171</v>
+        <v>941.6007284770176</v>
       </c>
       <c r="N40" t="n">
-        <v>1250.733120208856</v>
+        <v>1250.733120208857</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.324138488815</v>
+        <v>1526.324138488816</v>
       </c>
       <c r="P40" t="n">
         <v>1750.101957367261</v>
       </c>
       <c r="Q40" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R40" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S40" t="n">
-        <v>1680.389026481854</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T40" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U40" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V40" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W40" t="n">
-        <v>946.8955572420396</v>
+        <v>946.8955572420386</v>
       </c>
       <c r="X40" t="n">
-        <v>800.0821004655893</v>
+        <v>800.0821004655885</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.4656154436262</v>
+        <v>660.4656154436256</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1866.521426036208</v>
+        <v>1866.521426036206</v>
       </c>
       <c r="C41" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D41" t="n">
-        <v>1301.64539873218</v>
+        <v>1301.645398732178</v>
       </c>
       <c r="E41" t="n">
-        <v>997.0332402555027</v>
+        <v>997.0332402555014</v>
       </c>
       <c r="F41" t="n">
-        <v>667.2234295874623</v>
+        <v>667.2234295874609</v>
       </c>
       <c r="G41" t="n">
-        <v>331.6647365253307</v>
+        <v>331.6647365253293</v>
       </c>
       <c r="H41" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053865</v>
       </c>
       <c r="I41" t="n">
         <v>73.32476822280034</v>
@@ -7412,49 +7412,49 @@
         <v>291.3284374829997</v>
       </c>
       <c r="K41" t="n">
-        <v>738.8042303303005</v>
+        <v>417.9002718848474</v>
       </c>
       <c r="L41" t="n">
-        <v>1346.214147415878</v>
+        <v>1025.310188970425</v>
       </c>
       <c r="M41" t="n">
-        <v>1593.662862850034</v>
+        <v>1717.777302562485</v>
       </c>
       <c r="N41" t="n">
-        <v>2277.449828034249</v>
+        <v>2406.81726045873</v>
       </c>
       <c r="O41" t="n">
-        <v>2882.903083572192</v>
+        <v>3012.270515996673</v>
       </c>
       <c r="P41" t="n">
-        <v>3361.969046610162</v>
+        <v>3383.701583852175</v>
       </c>
       <c r="Q41" t="n">
-        <v>3644.505873898003</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R41" t="n">
         <v>3666.238411140017</v>
       </c>
       <c r="S41" t="n">
-        <v>3599.243331747286</v>
+        <v>3599.243331747285</v>
       </c>
       <c r="T41" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.16479790996</v>
       </c>
       <c r="U41" t="n">
-        <v>3294.67742834307</v>
+        <v>3294.677428343069</v>
       </c>
       <c r="V41" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121065</v>
       </c>
       <c r="W41" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972518</v>
       </c>
       <c r="X41" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833005</v>
       </c>
       <c r="Y41" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.94517197876</v>
       </c>
     </row>
     <row r="42">
@@ -7488,19 +7488,19 @@
         <v>73.32476822280034</v>
       </c>
       <c r="J42" t="n">
-        <v>84.64275548951997</v>
+        <v>209.4728804765247</v>
       </c>
       <c r="K42" t="n">
-        <v>182.1418231557572</v>
+        <v>568.7925327852147</v>
       </c>
       <c r="L42" t="n">
-        <v>726.6958347708662</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M42" t="n">
-        <v>1077.208267485139</v>
+        <v>1467.131963569102</v>
       </c>
       <c r="N42" t="n">
-        <v>1324.009103315026</v>
+        <v>1713.932799398989</v>
       </c>
       <c r="O42" t="n">
         <v>1917.487552527652</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9932447349531</v>
+        <v>559.993244734953</v>
       </c>
       <c r="C43" t="n">
-        <v>472.2331559286134</v>
+        <v>472.2331559286132</v>
       </c>
       <c r="D43" t="n">
-        <v>403.2926106378447</v>
+        <v>403.2926106378446</v>
       </c>
       <c r="E43" t="n">
-        <v>336.5556111770187</v>
+        <v>336.5556111770186</v>
       </c>
       <c r="F43" t="n">
         <v>270.8417578006755</v>
@@ -7570,49 +7570,49 @@
         <v>146.3385235905138</v>
       </c>
       <c r="K43" t="n">
-        <v>344.9774256618353</v>
+        <v>344.9774256618348</v>
       </c>
       <c r="L43" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M43" t="n">
-        <v>941.6007284770177</v>
+        <v>941.600728477017</v>
       </c>
       <c r="N43" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O43" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488815</v>
       </c>
       <c r="P43" t="n">
-        <v>1750.101957367262</v>
+        <v>1750.101957367261</v>
       </c>
       <c r="Q43" t="n">
         <v>1846.076031837954</v>
       </c>
       <c r="R43" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S43" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T43" t="n">
         <v>1536.612472748891</v>
       </c>
       <c r="U43" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V43" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W43" t="n">
-        <v>946.8955572420389</v>
+        <v>946.8955572420386</v>
       </c>
       <c r="X43" t="n">
-        <v>800.0821004655886</v>
+        <v>800.0821004655885</v>
       </c>
       <c r="Y43" t="n">
-        <v>660.4656154436257</v>
+        <v>660.4656154436256</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C44" t="n">
         <v>1578.735003217362</v>
@@ -7631,7 +7631,7 @@
         <v>1301.645398732179</v>
       </c>
       <c r="E44" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F44" t="n">
         <v>667.2234295874614</v>
@@ -7640,34 +7640,34 @@
         <v>331.6647365253298</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053866</v>
       </c>
       <c r="I44" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J44" t="n">
-        <v>291.3284374829997</v>
+        <v>123.9227884626467</v>
       </c>
       <c r="K44" t="n">
-        <v>738.8042303303005</v>
+        <v>571.3985813099475</v>
       </c>
       <c r="L44" t="n">
-        <v>932.7295450109323</v>
+        <v>1178.808498395525</v>
       </c>
       <c r="M44" t="n">
-        <v>1625.196658602992</v>
+        <v>1871.275611987586</v>
       </c>
       <c r="N44" t="n">
-        <v>2277.449828034249</v>
+        <v>2560.31556988383</v>
       </c>
       <c r="O44" t="n">
-        <v>2882.903083572192</v>
+        <v>3165.768825421773</v>
       </c>
       <c r="P44" t="n">
-        <v>3361.969046610162</v>
+        <v>3593.893424605481</v>
       </c>
       <c r="Q44" t="n">
-        <v>3644.505873898003</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R44" t="n">
         <v>3666.238411140017</v>
@@ -7676,7 +7676,7 @@
         <v>3599.243331747286</v>
       </c>
       <c r="T44" t="n">
-        <v>3467.164797909962</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U44" t="n">
         <v>3294.67742834307</v>
@@ -7731,13 +7731,13 @@
         <v>568.7925327852147</v>
       </c>
       <c r="L45" t="n">
-        <v>746.2146025498992</v>
+        <v>1113.346544400324</v>
       </c>
       <c r="M45" t="n">
-        <v>972.6146576791567</v>
+        <v>1467.131963569102</v>
       </c>
       <c r="N45" t="n">
-        <v>1693.964444109162</v>
+        <v>1713.932799398989</v>
       </c>
       <c r="O45" t="n">
         <v>1917.487552527652</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C46" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286133</v>
       </c>
       <c r="D46" t="n">
-        <v>403.2926106378449</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E46" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770187</v>
       </c>
       <c r="F46" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G46" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H46" t="n">
         <v>111.8985965143195</v>
@@ -7807,16 +7807,16 @@
         <v>146.3385235905138</v>
       </c>
       <c r="K46" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618348</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649287</v>
       </c>
       <c r="M46" t="n">
-        <v>941.6007284770176</v>
+        <v>941.600728477017</v>
       </c>
       <c r="N46" t="n">
-        <v>1250.733120208857</v>
+        <v>1250.733120208856</v>
       </c>
       <c r="O46" t="n">
         <v>1526.324138488816</v>
@@ -7828,7 +7828,7 @@
         <v>1846.076031837954</v>
       </c>
       <c r="R46" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S46" t="n">
         <v>1680.389026481853</v>
@@ -7840,16 +7840,16 @@
         <v>1328.645027241752</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W46" t="n">
-        <v>946.8955572420391</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X46" t="n">
-        <v>800.0821004655888</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y46" t="n">
-        <v>660.4656154436259</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>402.5571885181428</v>
       </c>
       <c r="N11" t="n">
-        <v>393.8523528674106</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>20.19128525186312</v>
+        <v>106.5424808460468</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>43.76436205276633</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>197.7163657296753</v>
+        <v>96.3008178310248</v>
       </c>
       <c r="M12" t="n">
-        <v>423.8184615533935</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>403.2116123608386</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>354.0508719650984</v>
+        <v>206.906314613241</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>105.6501109151338</v>
       </c>
       <c r="M15" t="n">
-        <v>423.8184615533935</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>403.2116123608386</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>201.0224126534175</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>415.9004419820974</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>402.5571885181427</v>
+        <v>402.5571885181428</v>
       </c>
       <c r="N17" t="n">
-        <v>393.8523528674107</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>10.67997446707889</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9252,13 +9252,13 @@
         <v>423.8184615533935</v>
       </c>
       <c r="N18" t="n">
-        <v>230.0876327870547</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.0876327870544</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>125.9527837017614</v>
+        <v>206.9063146132403</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>197.7163657296752</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>423.8184615533935</v>
+        <v>43.92324116750217</v>
       </c>
       <c r="N21" t="n">
         <v>403.2116123608384</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>419.7264636342425</v>
+        <v>97.65377297305537</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>96.57314837069833</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>53.27253425161172</v>
+        <v>128.672084888404</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9875,28 +9875,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>432.0408711675093</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>213.0765918255553</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>43.7643620527663</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>128.6720848884039</v>
+        <v>128.6720848884037</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>4.479395494892117</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>60.41036662850886</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>128.6720848884042</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>128.6720848884046</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>191.124534005341</v>
+        <v>248.3907272661529</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>128.6720848884042</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>163.7905619275982</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>191.1245340053405</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.3929977508258</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>432.0408711675092</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>432.0408711675087</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>128.6720848884044</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>432.0408711675091</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>213.0765918255559</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11136,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>125.3660379646623</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>400.1885522251274</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>270.3427850863696</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276633</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11379,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>128.6720848884044</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>20.17005584830983</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>290.4208713840642</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>317.668199835643</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>342.6138755050927</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>348.305269075243</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>83.0213151037937</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>109.7160910069185</v>
+        <v>186.8646588149559</v>
       </c>
       <c r="V11" t="n">
-        <v>263.4900882335162</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>305.4689304418503</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.20485438028699</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>81.15887778631247</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>54.29025295233663</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.86261053062146</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>138.3718506593841</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>221.9899339958002</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>161.8985123131418</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>318.4716714268618</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>92.73188448573923</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>40.76113535209362</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>186.8646588149558</v>
+        <v>186.8646588149559</v>
       </c>
       <c r="V14" t="n">
-        <v>263.4900882335161</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>208.9647349922335</v>
+        <v>305.4689304418503</v>
       </c>
       <c r="Y14" t="n">
         <v>321.9757684194348</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>102.9846508620091</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.17179240995034</v>
+        <v>82.1717924099504</v>
       </c>
       <c r="F16" t="n">
-        <v>81.15887778631242</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>53.81318545925826</v>
       </c>
       <c r="H16" t="n">
-        <v>87.05620704710242</v>
+        <v>87.05620704710248</v>
       </c>
       <c r="I16" t="n">
-        <v>54.29025295233657</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.86261053062145</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>79.21131611323841</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.062958362185043</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>100.4122490639216</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>98.34929070173651</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>98.34929070173642</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.062958362185043</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>100.4122490639215</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>2.458477865729947e-12</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1230880.962475911</v>
+        <v>1230880.96247591</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1230880.962475911</v>
+        <v>1230880.96247591</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1230880.962475911</v>
+        <v>1230880.96247591</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1230880.96247591</v>
+        <v>1230880.962475911</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26314,16 @@
         <v>307228.6270188894</v>
       </c>
       <c r="C2" t="n">
-        <v>307228.6270188893</v>
+        <v>307228.6270188895</v>
       </c>
       <c r="D2" t="n">
-        <v>307228.6270188894</v>
+        <v>307228.6270188895</v>
       </c>
       <c r="E2" t="n">
         <v>266637.3873214389</v>
       </c>
       <c r="F2" t="n">
-        <v>266637.3873214389</v>
+        <v>266637.3873214387</v>
       </c>
       <c r="G2" t="n">
         <v>304893.3580645484</v>
@@ -26332,28 +26332,28 @@
         <v>304893.3580645486</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="J2" t="n">
-        <v>307890.6636991057</v>
+        <v>307890.6636991059</v>
       </c>
       <c r="K2" t="n">
         <v>307890.6636991057</v>
       </c>
       <c r="L2" t="n">
-        <v>307890.6636991057</v>
+        <v>307890.6636991058</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991056</v>
+        <v>307890.6636991053</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.6636991055</v>
+        <v>307890.6636991054</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991057</v>
+        <v>307890.6636991054</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991055</v>
+        <v>307890.6636991054</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>792873.2514315092</v>
+        <v>792873.2514315093</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64291.46654428112</v>
+        <v>64291.46654428114</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>6880.469409226737</v>
       </c>
       <c r="J3" t="n">
-        <v>62318.39567828066</v>
+        <v>62318.39567828071</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64291.46654428116</v>
+        <v>64291.46654428117</v>
       </c>
       <c r="M3" t="n">
-        <v>162606.9521943978</v>
+        <v>162606.9521943979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>425523.1391661035</v>
       </c>
       <c r="E4" t="n">
-        <v>136192.9102518705</v>
+        <v>136192.9102518706</v>
       </c>
       <c r="F4" t="n">
         <v>136192.9102518706</v>
@@ -26436,7 +26436,7 @@
         <v>194263.6308833979</v>
       </c>
       <c r="I4" t="n">
-        <v>197334.0266155643</v>
+        <v>197334.0266155642</v>
       </c>
       <c r="J4" t="n">
         <v>183799.3286943955</v>
@@ -26479,7 +26479,7 @@
         <v>59907.6221857465</v>
       </c>
       <c r="F5" t="n">
-        <v>59907.62218574651</v>
+        <v>59907.6221857465</v>
       </c>
       <c r="G5" t="n">
         <v>66663.77131188547</v>
@@ -26494,10 +26494,10 @@
         <v>77315.81130726746</v>
       </c>
       <c r="K5" t="n">
-        <v>77315.81130726748</v>
+        <v>77315.81130726745</v>
       </c>
       <c r="L5" t="n">
-        <v>77315.81130726748</v>
+        <v>77315.81130726745</v>
       </c>
       <c r="M5" t="n">
         <v>77315.81130726746</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151922.1121472142</v>
+        <v>-151926.5257250822</v>
       </c>
       <c r="C6" t="n">
-        <v>-151922.1121472143</v>
+        <v>-151926.5257250822</v>
       </c>
       <c r="D6" t="n">
-        <v>-151922.1121472142</v>
+        <v>-151926.5257250821</v>
       </c>
       <c r="E6" t="n">
-        <v>-722336.3965476872</v>
+        <v>-722611.4183902052</v>
       </c>
       <c r="F6" t="n">
-        <v>70536.85488382168</v>
+        <v>70261.83304130383</v>
       </c>
       <c r="G6" t="n">
-        <v>-20325.51067501606</v>
+        <v>-20345.49271257978</v>
       </c>
       <c r="H6" t="n">
-        <v>43965.95586926532</v>
+        <v>43945.97383170154</v>
       </c>
       <c r="I6" t="n">
-        <v>35439.25042780646</v>
+        <v>35439.2504278066</v>
       </c>
       <c r="J6" t="n">
-        <v>-15542.87198083792</v>
+        <v>-15542.87198083775</v>
       </c>
       <c r="K6" t="n">
-        <v>46775.52369744268</v>
+        <v>46775.5236974428</v>
       </c>
       <c r="L6" t="n">
-        <v>-17515.94284683849</v>
+        <v>-17515.94284683825</v>
       </c>
       <c r="M6" t="n">
-        <v>-115831.4284969553</v>
+        <v>-115831.4284969556</v>
       </c>
       <c r="N6" t="n">
-        <v>46775.52369744264</v>
+        <v>46775.52369744249</v>
       </c>
       <c r="O6" t="n">
-        <v>46775.52369744267</v>
+        <v>46775.52369744243</v>
       </c>
       <c r="P6" t="n">
-        <v>46775.52369744255</v>
+        <v>46775.52369744249</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F2" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="G2" t="n">
         <v>144.6265034169702</v>
@@ -26707,25 +26707,25 @@
         <v>144.6265034169702</v>
       </c>
       <c r="J2" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K2" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N2" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="O2" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P2" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="3">
@@ -26811,25 +26811,25 @@
         <v>678.3794966932129</v>
       </c>
       <c r="J4" t="n">
+        <v>916.5596027850045</v>
+      </c>
+      <c r="K4" t="n">
+        <v>916.5596027850041</v>
+      </c>
+      <c r="L4" t="n">
+        <v>916.5596027850041</v>
+      </c>
+      <c r="M4" t="n">
         <v>916.5596027850042</v>
       </c>
-      <c r="K4" t="n">
-        <v>916.5596027850047</v>
-      </c>
-      <c r="L4" t="n">
-        <v>916.5596027850046</v>
-      </c>
-      <c r="M4" t="n">
-        <v>916.5596027850045</v>
-      </c>
       <c r="N4" t="n">
-        <v>916.5596027850044</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="O4" t="n">
-        <v>916.5596027850044</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="P4" t="n">
-        <v>916.5596027850044</v>
+        <v>916.5596027850042</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035145</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>25.87411076683202</v>
       </c>
       <c r="J4" t="n">
-        <v>238.1801060917913</v>
+        <v>238.1801060917916</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.5053859263811</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="C11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="D11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="E11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="G11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="H11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="I11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="T11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="U11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="V11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="W11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="X11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="C13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="D13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="E13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="G13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="H13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="I13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="J13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="K13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="L13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="M13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="N13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="O13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="P13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="R13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="S13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="T13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="U13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="V13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="W13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="X13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.26217023661874</v>
+        <v>64.26217023661877</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="C14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="D14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="E14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="G14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="H14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="I14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="T14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="U14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="V14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="W14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="X14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="C16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="D16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="E16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="F16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="G16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="H16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="I16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="J16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="K16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="L16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="M16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="N16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="O16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="P16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="R16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="S16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="T16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="U16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="V16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="W16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="X16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.26217023661883</v>
+        <v>64.26217023661877</v>
       </c>
     </row>
     <row r="17">
@@ -28725,7 +28725,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="E19" t="n">
         <v>144.6265034169702</v>
@@ -28737,7 +28737,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="I19" t="n">
         <v>118.5524231889554</v>
@@ -28770,13 +28770,13 @@
         <v>122.1247807672402</v>
       </c>
       <c r="S19" t="n">
-        <v>77.89978780722868</v>
+        <v>77.89978780722845</v>
       </c>
       <c r="T19" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="U19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>144.6265034169702</v>
@@ -28785,7 +28785,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="X19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6265034169702</v>
@@ -28895,7 +28895,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.836930773104541e-13</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="C22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>144.6265034169702</v>
@@ -28971,13 +28971,13 @@
         <v>144.6265034169702</v>
       </c>
       <c r="G22" t="n">
-        <v>55.398065157498</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="I22" t="n">
-        <v>118.5524231889554</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>6.613065132156024</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S22" t="n">
         <v>144.6265034169702</v>
@@ -29016,7 +29016,7 @@
         <v>144.6265034169702</v>
       </c>
       <c r="V22" t="n">
-        <v>144.6265034169702</v>
+        <v>51.82570757921397</v>
       </c>
       <c r="W22" t="n">
         <v>144.6265034169702</v>
@@ -29217,7 +29217,7 @@
         <v>118.5524231889554</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.613065132156024</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,25 +29241,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.1247807672402</v>
+        <v>55.39806515749881</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>144.6265034169702</v>
       </c>
       <c r="V25" t="n">
-        <v>84.51285293938429</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>144.6265034169702</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6265034169702</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="E28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="F28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="G28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="H28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="K28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="L28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="M28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="N28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="O28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="P28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="R28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="S28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="T28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="U28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="V28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="W28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="X28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035141</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.36433318035135</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035158</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="K34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="L34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="R34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="S34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.3643331803509</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035215</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035083</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035306</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035137</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="C43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="D43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="E43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="F43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="G43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="H43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="I43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="J43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="K43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035088</v>
       </c>
       <c r="L43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="M43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="N43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="O43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="P43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="R43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="S43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="T43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="U43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="V43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="W43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="X43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035147</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="K46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035088</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="M46" t="n">
-        <v>80.36433318035154</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="N46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="P46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="R46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="S46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
   </sheetData>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.10911135338011</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K11" t="n">
         <v>127.8503377796442</v>
       </c>
       <c r="L11" t="n">
-        <v>613.5453707935129</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M11" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="N11" t="n">
-        <v>652.505385926381</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O11" t="n">
-        <v>250.9600489769389</v>
+        <v>337.3112445711226</v>
       </c>
       <c r="P11" t="n">
-        <v>162.1063049981836</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q11" t="n">
-        <v>73.07574397427894</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>21.95205782021611</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.43231037042386</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K12" t="n">
-        <v>98.48390673357298</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L12" t="n">
-        <v>376.930577613195</v>
+        <v>275.5150297145445</v>
       </c>
       <c r="M12" t="n">
-        <v>652.505385926381</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N12" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="O12" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P12" t="n">
-        <v>145.4924937843536</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.83444835153864</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446272</v>
+        <v>57.64910510446275</v>
       </c>
       <c r="K13" t="n">
-        <v>184.5431926838648</v>
+        <v>184.5431926838649</v>
       </c>
       <c r="L13" t="n">
         <v>274.2677753422207</v>
@@ -35586,7 +35586,7 @@
         <v>209.9360379435864</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262321</v>
+        <v>80.84134662262323</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.10911135338011</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K14" t="n">
         <v>451.9957503508089</v>
@@ -35659,7 +35659,7 @@
         <v>258.6530330589704</v>
       </c>
       <c r="O14" t="n">
-        <v>584.8196356901742</v>
+        <v>437.6750783383168</v>
       </c>
       <c r="P14" t="n">
         <v>483.9050131696662</v>
@@ -35668,7 +35668,7 @@
         <v>285.3907346341836</v>
       </c>
       <c r="R14" t="n">
-        <v>21.95205782021611</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>362.9491437461515</v>
       </c>
       <c r="L15" t="n">
-        <v>179.2142118835197</v>
+        <v>284.8643227986535</v>
       </c>
       <c r="M15" t="n">
-        <v>652.505385926381</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N15" t="n">
-        <v>652.505385926381</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O15" t="n">
-        <v>406.6332743995422</v>
+        <v>599.4731810228543</v>
       </c>
       <c r="P15" t="n">
-        <v>145.4924937843536</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.83444835153864</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446281</v>
+        <v>57.64910510446275</v>
       </c>
       <c r="K16" t="n">
         <v>184.5431926838649</v>
@@ -35811,19 +35811,19 @@
         <v>274.2677753422207</v>
       </c>
       <c r="M16" t="n">
-        <v>296.1776995937304</v>
+        <v>296.1776995937303</v>
       </c>
       <c r="N16" t="n">
-        <v>296.1527781995393</v>
+        <v>296.1527781995392</v>
       </c>
       <c r="O16" t="n">
-        <v>262.2726029956202</v>
+        <v>262.2726029956201</v>
       </c>
       <c r="P16" t="n">
-        <v>209.9360379435865</v>
+        <v>209.9360379435864</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262329</v>
+        <v>80.84134662262323</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.10911135338011</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K17" t="n">
         <v>127.8503377796442</v>
       </c>
       <c r="L17" t="n">
-        <v>611.7845982251599</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M17" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="N17" t="n">
-        <v>652.505385926381</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O17" t="n">
         <v>230.7687637250758</v>
       </c>
       <c r="P17" t="n">
-        <v>162.1063049981836</v>
+        <v>172.7862794652625</v>
       </c>
       <c r="Q17" t="n">
-        <v>73.07574397427894</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R17" t="n">
         <v>21.95205782021611</v>
@@ -35972,13 +35972,13 @@
         <v>652.505385926381</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3814063525971</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O18" t="n">
         <v>599.4731810228543</v>
       </c>
       <c r="P18" t="n">
-        <v>145.4924937843536</v>
+        <v>375.580126571408</v>
       </c>
       <c r="Q18" t="n">
         <v>46.83444835153864</v>
@@ -36124,7 +36124,7 @@
         <v>451.9957503508089</v>
       </c>
       <c r="L20" t="n">
-        <v>321.8369399448239</v>
+        <v>402.7904708563028</v>
       </c>
       <c r="M20" t="n">
         <v>249.9481974082383</v>
@@ -36133,16 +36133,16 @@
         <v>258.6530330589704</v>
       </c>
       <c r="O20" t="n">
-        <v>611.5689449878212</v>
+        <v>230.7687637250758</v>
       </c>
       <c r="P20" t="n">
-        <v>162.1063049981836</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q20" t="n">
         <v>285.3907346341836</v>
       </c>
       <c r="R20" t="n">
-        <v>21.95205782021611</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.43231037042386</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K21" t="n">
-        <v>98.48390673357298</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L21" t="n">
-        <v>376.9305776131949</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M21" t="n">
-        <v>652.5053859263809</v>
+        <v>272.6101655404896</v>
       </c>
       <c r="N21" t="n">
         <v>652.5053859263809</v>
       </c>
       <c r="O21" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P21" t="n">
         <v>145.4924937843536</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.83444835153864</v>
+        <v>256.9117360873877</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>51.10911135338011</v>
       </c>
       <c r="K23" t="n">
-        <v>127.8503377796442</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L23" t="n">
-        <v>613.5453707935129</v>
+        <v>195.8841562430625</v>
       </c>
       <c r="M23" t="n">
         <v>249.9481974082383</v>
       </c>
       <c r="N23" t="n">
-        <v>678.3794966932129</v>
+        <v>356.3068060320257</v>
       </c>
       <c r="O23" t="n">
         <v>611.5689449878212</v>
       </c>
       <c r="P23" t="n">
-        <v>258.6794533688819</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q23" t="n">
-        <v>73.07574397427894</v>
+        <v>285.3907346341836</v>
       </c>
       <c r="R23" t="n">
-        <v>21.95205782021611</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>550.0545571869789</v>
       </c>
       <c r="M24" t="n">
-        <v>281.9594586245992</v>
+        <v>357.3590092613914</v>
       </c>
       <c r="N24" t="n">
         <v>249.2937735655424</v>
       </c>
       <c r="O24" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P24" t="n">
-        <v>145.4924937843536</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q24" t="n">
         <v>256.9117360873877</v>
@@ -36595,28 +36595,28 @@
         <v>220.2057265254539</v>
       </c>
       <c r="K26" t="n">
-        <v>127.8503377796442</v>
+        <v>451.995750350809</v>
       </c>
       <c r="L26" t="n">
         <v>613.545370793513</v>
       </c>
       <c r="M26" t="n">
-        <v>699.4617309010708</v>
+        <v>681.9890685757476</v>
       </c>
       <c r="N26" t="n">
-        <v>695.9999574709545</v>
+        <v>258.6530330589704</v>
       </c>
       <c r="O26" t="n">
         <v>611.5689449878212</v>
       </c>
       <c r="P26" t="n">
-        <v>375.182896823739</v>
+        <v>483.9050131696663</v>
       </c>
       <c r="Q26" t="n">
         <v>285.3907346341837</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>550.0545571869789</v>
       </c>
       <c r="M27" t="n">
-        <v>357.3590092613914</v>
+        <v>357.3590092613912</v>
       </c>
       <c r="N27" t="n">
         <v>249.2937735655425</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.75126804819543</v>
+        <v>73.7512680481954</v>
       </c>
       <c r="K28" t="n">
         <v>200.6453556275976</v>
@@ -36771,7 +36771,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.94350956635591</v>
+        <v>96.94350956635589</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>613.5453707935129</v>
       </c>
       <c r="M29" t="n">
-        <v>249.9481974082383</v>
+        <v>699.4617309010707</v>
       </c>
       <c r="N29" t="n">
-        <v>695.9999574709545</v>
+        <v>263.1324285538625</v>
       </c>
       <c r="O29" t="n">
         <v>611.5689449878212</v>
@@ -36853,7 +36853,7 @@
         <v>285.3907346341836</v>
       </c>
       <c r="R29" t="n">
-        <v>16.64600457574253</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>550.0545571869789</v>
       </c>
       <c r="M30" t="n">
-        <v>357.3590092613916</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N30" t="n">
-        <v>249.2937735655424</v>
+        <v>377.965858453947</v>
       </c>
       <c r="O30" t="n">
         <v>205.6108617461247</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.75126804819533</v>
+        <v>73.7512680481954</v>
       </c>
       <c r="K31" t="n">
-        <v>200.6453556275974</v>
+        <v>200.6453556275975</v>
       </c>
       <c r="L31" t="n">
-        <v>290.3699382859533</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M31" t="n">
-        <v>312.2798625374629</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N31" t="n">
-        <v>312.2549411432718</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O31" t="n">
-        <v>278.3747659393527</v>
+        <v>278.3747659393528</v>
       </c>
       <c r="P31" t="n">
-        <v>226.038200887319</v>
+        <v>226.0382008873191</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.94350956635581</v>
+        <v>96.94350956635589</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.2057265254539</v>
+        <v>51.10911135338011</v>
       </c>
       <c r="K32" t="n">
-        <v>127.8503377796442</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L32" t="n">
         <v>613.5453707935129</v>
@@ -37084,10 +37084,10 @@
         <v>611.5689449878212</v>
       </c>
       <c r="P32" t="n">
-        <v>353.2308390035246</v>
+        <v>410.4970322643365</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.3907346341836</v>
+        <v>73.07574397427894</v>
       </c>
       <c r="R32" t="n">
         <v>21.95205782021611</v>
@@ -37154,13 +37154,13 @@
         <v>550.0545571869789</v>
       </c>
       <c r="M33" t="n">
-        <v>357.3590092613916</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N33" t="n">
         <v>249.2937735655424</v>
       </c>
       <c r="O33" t="n">
-        <v>205.6108617461247</v>
+        <v>334.2829466345291</v>
       </c>
       <c r="P33" t="n">
         <v>463.9552624242908</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.75126804819539</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K34" t="n">
-        <v>200.6453556275975</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L34" t="n">
-        <v>290.3699382859533</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M34" t="n">
         <v>312.279862537463</v>
@@ -37242,10 +37242,10 @@
         <v>278.3747659393528</v>
       </c>
       <c r="P34" t="n">
-        <v>226.038200887319</v>
+        <v>226.0382008873191</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.94350956635587</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>220.2057265254539</v>
+        <v>214.8996732809783</v>
       </c>
       <c r="K35" t="n">
-        <v>127.8503377796442</v>
+        <v>451.9957503508089</v>
       </c>
       <c r="L35" t="n">
         <v>613.5453707935129</v>
       </c>
       <c r="M35" t="n">
-        <v>699.4617309010707</v>
+        <v>249.9481974082383</v>
       </c>
       <c r="N35" t="n">
         <v>695.9999574709545</v>
@@ -37321,7 +37321,7 @@
         <v>611.5689449878212</v>
       </c>
       <c r="P35" t="n">
-        <v>353.2308390035241</v>
+        <v>483.9050131696662</v>
       </c>
       <c r="Q35" t="n">
         <v>285.3907346341836</v>
@@ -37385,22 +37385,22 @@
         <v>137.5233457108327</v>
       </c>
       <c r="K36" t="n">
-        <v>235.8769044843988</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L36" t="n">
-        <v>179.2142118835197</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M36" t="n">
-        <v>694.3919881229874</v>
+        <v>228.6869243729874</v>
       </c>
       <c r="N36" t="n">
-        <v>728.6361479090959</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O36" t="n">
-        <v>205.6108617461247</v>
+        <v>334.2829466345291</v>
       </c>
       <c r="P36" t="n">
-        <v>145.4924937843536</v>
+        <v>463.9552624242908</v>
       </c>
       <c r="Q36" t="n">
         <v>256.9117360873877</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.75126804819539</v>
+        <v>73.75126804819487</v>
       </c>
       <c r="K37" t="n">
-        <v>200.6453556275975</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L37" t="n">
-        <v>290.3699382859533</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M37" t="n">
         <v>312.279862537463</v>
@@ -37479,10 +37479,10 @@
         <v>278.3747659393528</v>
       </c>
       <c r="P37" t="n">
-        <v>226.038200887319</v>
+        <v>226.0382008873191</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.94350956635661</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>613.5453707935129</v>
       </c>
       <c r="M38" t="n">
-        <v>681.9890685757474</v>
+        <v>249.9481974082383</v>
       </c>
       <c r="N38" t="n">
-        <v>258.6530330589704</v>
+        <v>690.693904226479</v>
       </c>
       <c r="O38" t="n">
         <v>611.5689449878212</v>
@@ -37628,13 +37628,13 @@
         <v>550.0545571869789</v>
       </c>
       <c r="M39" t="n">
-        <v>228.6869243729874</v>
+        <v>357.3590092613919</v>
       </c>
       <c r="N39" t="n">
         <v>249.2937735655424</v>
       </c>
       <c r="O39" t="n">
-        <v>334.2829466345291</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P39" t="n">
         <v>463.9552624242908</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.75126804819534</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K40" t="n">
-        <v>200.6453556275975</v>
+        <v>200.6453556275976</v>
       </c>
       <c r="L40" t="n">
-        <v>290.3699382859533</v>
+        <v>290.3699382859534</v>
       </c>
       <c r="M40" t="n">
-        <v>312.2798625374629</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N40" t="n">
-        <v>312.2549411432718</v>
+        <v>312.2549411432719</v>
       </c>
       <c r="O40" t="n">
         <v>278.3747659393528</v>
       </c>
       <c r="P40" t="n">
-        <v>226.038200887319</v>
+        <v>226.0382008873185</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.94350956635752</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>220.2057265254539</v>
       </c>
       <c r="K41" t="n">
-        <v>451.9957503508089</v>
+        <v>127.8503377796442</v>
       </c>
       <c r="L41" t="n">
         <v>613.5453707935129</v>
       </c>
       <c r="M41" t="n">
-        <v>249.9481974082383</v>
+        <v>699.4617309010707</v>
       </c>
       <c r="N41" t="n">
-        <v>690.6939042264795</v>
+        <v>695.9999574709545</v>
       </c>
       <c r="O41" t="n">
         <v>611.5689449878212</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9050131696662</v>
+        <v>375.1828968237395</v>
       </c>
       <c r="Q41" t="n">
         <v>285.3907346341836</v>
       </c>
       <c r="R41" t="n">
-        <v>21.95205782021611</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11.43231037042386</v>
+        <v>137.5233457108327</v>
       </c>
       <c r="K42" t="n">
-        <v>98.48390673357298</v>
+        <v>362.9491437461515</v>
       </c>
       <c r="L42" t="n">
         <v>550.0545571869789</v>
       </c>
       <c r="M42" t="n">
-        <v>354.0529623376498</v>
+        <v>357.3590092613919</v>
       </c>
       <c r="N42" t="n">
         <v>249.2937735655424</v>
       </c>
       <c r="O42" t="n">
-        <v>599.4731810228543</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P42" t="n">
         <v>463.9552624242908</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819544</v>
       </c>
       <c r="K43" t="n">
-        <v>200.6453556275975</v>
+        <v>200.645355627597</v>
       </c>
       <c r="L43" t="n">
         <v>290.3699382859534</v>
@@ -37956,7 +37956,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.94350956635589</v>
+        <v>96.94350956635593</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>220.2057265254539</v>
+        <v>51.10911135338011</v>
       </c>
       <c r="K44" t="n">
         <v>451.9957503508089</v>
       </c>
       <c r="L44" t="n">
-        <v>195.8841562430625</v>
+        <v>613.5453707935129</v>
       </c>
       <c r="M44" t="n">
         <v>699.4617309010707</v>
       </c>
       <c r="N44" t="n">
-        <v>658.8415852840977</v>
+        <v>695.9999574709545</v>
       </c>
       <c r="O44" t="n">
         <v>611.5689449878212</v>
       </c>
       <c r="P44" t="n">
-        <v>483.9050131696662</v>
+        <v>432.4490900845532</v>
       </c>
       <c r="Q44" t="n">
-        <v>285.3907346341836</v>
+        <v>73.07574397427894</v>
       </c>
       <c r="R44" t="n">
-        <v>21.95205782021611</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>362.9491437461515</v>
       </c>
       <c r="L45" t="n">
-        <v>179.2142118835197</v>
+        <v>550.0545571869789</v>
       </c>
       <c r="M45" t="n">
-        <v>228.6869243729874</v>
+        <v>357.3590092613919</v>
       </c>
       <c r="N45" t="n">
-        <v>728.6361479090959</v>
+        <v>249.2937735655424</v>
       </c>
       <c r="O45" t="n">
-        <v>225.7809175944346</v>
+        <v>205.6108617461247</v>
       </c>
       <c r="P45" t="n">
         <v>463.9552624242908</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K46" t="n">
-        <v>200.6453556275975</v>
+        <v>200.645355627597</v>
       </c>
       <c r="L46" t="n">
         <v>290.3699382859534</v>
       </c>
       <c r="M46" t="n">
-        <v>312.2798625374631</v>
+        <v>312.279862537463</v>
       </c>
       <c r="N46" t="n">
         <v>312.2549411432719</v>
@@ -38193,7 +38193,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.94350956635589</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
